--- a/tmp_output/docked_raw/docked_raw_2022-03-04.xlsx
+++ b/tmp_output/docked_raw/docked_raw_2022-03-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="265">
   <si>
     <t>員編</t>
   </si>
@@ -764,78 +764,6 @@
     <t>INTWK0002202240599</t>
   </si>
   <si>
-    <t>4710273812045</t>
-  </si>
-  <si>
-    <t>4710273812052</t>
-  </si>
-  <si>
-    <t>4710273811840</t>
-  </si>
-  <si>
-    <t>4710273811864</t>
-  </si>
-  <si>
-    <t>4710273812113</t>
-  </si>
-  <si>
-    <t>4710273811710</t>
-  </si>
-  <si>
-    <t>4710273811826</t>
-  </si>
-  <si>
-    <t>4710273812083</t>
-  </si>
-  <si>
-    <t>4710273811857</t>
-  </si>
-  <si>
-    <t>4710273811567</t>
-  </si>
-  <si>
-    <t>4710273812076</t>
-  </si>
-  <si>
-    <t>4710273812090</t>
-  </si>
-  <si>
-    <t>4710273811390</t>
-  </si>
-  <si>
-    <t>4710273812069</t>
-  </si>
-  <si>
-    <t>4710273811727</t>
-  </si>
-  <si>
-    <t>4710273811758</t>
-  </si>
-  <si>
-    <t>279050178</t>
-  </si>
-  <si>
-    <t>26270660</t>
-  </si>
-  <si>
-    <t>026270660</t>
-  </si>
-  <si>
-    <t>8801007150406</t>
-  </si>
-  <si>
-    <t>8801007052397</t>
-  </si>
-  <si>
-    <t>8801007766232</t>
-  </si>
-  <si>
-    <t>8801007638553</t>
-  </si>
-  <si>
-    <t>8801007814773</t>
-  </si>
-  <si>
     <t>4308446351_10490930342</t>
   </si>
   <si>
@@ -851,618 +779,15 @@
     <t>4308446351_10490930343</t>
   </si>
   <si>
-    <t>4710012240085</t>
-  </si>
-  <si>
-    <t>4710012222517</t>
-  </si>
-  <si>
-    <t>4710562210125</t>
-  </si>
-  <si>
-    <t>4710562210194</t>
-  </si>
-  <si>
-    <t>4710562210101</t>
-  </si>
-  <si>
-    <t>4710562210439</t>
-  </si>
-  <si>
-    <t>4710562210446</t>
-  </si>
-  <si>
-    <t>4710562210088</t>
-  </si>
-  <si>
-    <t>4710562210095</t>
-  </si>
-  <si>
-    <t>4711075740048</t>
-  </si>
-  <si>
-    <t>4711075740055</t>
-  </si>
-  <si>
-    <t>4711075740017</t>
-  </si>
-  <si>
-    <t>4711075740031</t>
-  </si>
-  <si>
-    <t>4711041890296</t>
-  </si>
-  <si>
-    <t>4711041890036</t>
-  </si>
-  <si>
-    <t>9414202011176</t>
-  </si>
-  <si>
-    <t>9414202012302</t>
-  </si>
-  <si>
-    <t>9414202551153</t>
-  </si>
-  <si>
-    <t>9414202011190</t>
-  </si>
-  <si>
-    <t>9414202514028</t>
-  </si>
-  <si>
-    <t>9414202531155</t>
-  </si>
-  <si>
-    <t>4901126217388</t>
-  </si>
-  <si>
-    <t>4901126217401</t>
-  </si>
-  <si>
-    <t>9414202514004</t>
-  </si>
-  <si>
-    <t>9414202012401</t>
-  </si>
-  <si>
-    <t>9414202011060</t>
-  </si>
-  <si>
-    <t>9414202927606</t>
-  </si>
-  <si>
-    <t>4960664554324</t>
-  </si>
-  <si>
-    <t>9414202514035</t>
-  </si>
-  <si>
-    <t>9414202011534</t>
-  </si>
-  <si>
-    <t>097855148117</t>
-  </si>
-  <si>
-    <t>097855151612</t>
-  </si>
-  <si>
-    <t>097855161864</t>
-  </si>
-  <si>
-    <t>097855142726</t>
-  </si>
-  <si>
-    <t>97855123435</t>
-  </si>
-  <si>
-    <t>097855105684</t>
-  </si>
-  <si>
-    <t>097855123077</t>
-  </si>
-  <si>
-    <t>97855142016</t>
-  </si>
-  <si>
-    <t>097855100641</t>
-  </si>
-  <si>
-    <t>097855159656</t>
-  </si>
-  <si>
-    <t>097855152145</t>
-  </si>
-  <si>
-    <t>097855152152</t>
-  </si>
-  <si>
-    <t>097855165503</t>
-  </si>
-  <si>
-    <t>097855100740</t>
-  </si>
-  <si>
-    <t>097855157188</t>
-  </si>
-  <si>
-    <t>097855100658</t>
-  </si>
-  <si>
-    <t>097855145727</t>
-  </si>
-  <si>
-    <t>097855157225</t>
-  </si>
-  <si>
-    <t>097855160980</t>
-  </si>
-  <si>
-    <t>097855120243</t>
-  </si>
-  <si>
-    <t>97855125491</t>
-  </si>
-  <si>
-    <t>97855165534</t>
-  </si>
-  <si>
-    <t>097855161024</t>
-  </si>
-  <si>
-    <t>097855137333</t>
-  </si>
-  <si>
-    <t>097855165473</t>
-  </si>
-  <si>
     <t>10025965171_66923644362</t>
   </si>
   <si>
     <t>11625912389_27217129521</t>
   </si>
   <si>
-    <t>8007150904990</t>
-  </si>
-  <si>
-    <t>8007150903030</t>
-  </si>
-  <si>
-    <t>4712966430116</t>
-  </si>
-  <si>
-    <t>4712966430604</t>
-  </si>
-  <si>
-    <t>4712966430109</t>
-  </si>
-  <si>
-    <t>4712966430017</t>
-  </si>
-  <si>
-    <t>4712966430079</t>
-  </si>
-  <si>
-    <t>4710933250088</t>
-  </si>
-  <si>
-    <t>4710933248924</t>
-  </si>
-  <si>
-    <t>648436105106</t>
-  </si>
-  <si>
-    <t>8936028640879</t>
-  </si>
-  <si>
-    <t>8936028640572</t>
-  </si>
-  <si>
-    <t>8936028640541</t>
-  </si>
-  <si>
-    <t>8936028640558</t>
-  </si>
-  <si>
-    <t>648436101481</t>
-  </si>
-  <si>
-    <t>648436101443</t>
-  </si>
-  <si>
-    <t>8809695250316</t>
-  </si>
-  <si>
-    <t>4712702410112</t>
-  </si>
-  <si>
-    <t>8936028641340</t>
-  </si>
-  <si>
-    <t>648436105144</t>
-  </si>
-  <si>
-    <t>4713316022388</t>
-  </si>
-  <si>
-    <t>4713316900075</t>
-  </si>
-  <si>
-    <t>4713316022371</t>
-  </si>
-  <si>
-    <t>4713316022395</t>
-  </si>
-  <si>
-    <t>4713316022401</t>
-  </si>
-  <si>
-    <t>4718590065359</t>
-  </si>
-  <si>
-    <t>4713316022364</t>
-  </si>
-  <si>
-    <t>4713316022173</t>
-  </si>
-  <si>
-    <t>717334229594</t>
-  </si>
-  <si>
-    <t>4710418903195</t>
-  </si>
-  <si>
-    <t>4711041890043</t>
-  </si>
-  <si>
-    <t>4710586150100</t>
-  </si>
-  <si>
-    <t>8809685740506</t>
-  </si>
-  <si>
-    <t>8809685740520</t>
-  </si>
-  <si>
-    <t>4710679233017</t>
-  </si>
-  <si>
-    <t>4711518006991</t>
-  </si>
-  <si>
-    <t>4710901714758</t>
-  </si>
-  <si>
-    <t>8809263876542</t>
-  </si>
-  <si>
-    <t>8809263877808</t>
-  </si>
-  <si>
-    <t>8809263876856</t>
-  </si>
-  <si>
-    <t>8809625244514</t>
-  </si>
-  <si>
-    <t>8809625244521</t>
-  </si>
-  <si>
-    <t>8809625244477</t>
-  </si>
-  <si>
-    <t>8809263877853</t>
-  </si>
-  <si>
-    <t>8806403117534</t>
-  </si>
-  <si>
-    <t>8806403162817</t>
-  </si>
-  <si>
-    <t>5050838453115</t>
-  </si>
-  <si>
-    <t>194029300309</t>
-  </si>
-  <si>
-    <t>5050838402717</t>
-  </si>
-  <si>
-    <t>8804275493657</t>
-  </si>
-  <si>
-    <t>5050838424917</t>
-  </si>
-  <si>
-    <t>8007270127989</t>
-  </si>
-  <si>
-    <t>8006830604113</t>
-  </si>
-  <si>
-    <t>8006830604014</t>
-  </si>
-  <si>
-    <t>8058268350506</t>
-  </si>
-  <si>
-    <t>4792038035050</t>
-  </si>
-  <si>
-    <t>4714686008897</t>
-  </si>
-  <si>
-    <t>4714686008309</t>
-  </si>
-  <si>
-    <t>4714686008484</t>
-  </si>
-  <si>
-    <t>6070650021605</t>
-  </si>
-  <si>
-    <t>4710154214333</t>
-  </si>
-  <si>
-    <t>4710022024972</t>
-  </si>
-  <si>
-    <t>4710022041771</t>
-  </si>
-  <si>
-    <t>4710022028673</t>
-  </si>
-  <si>
-    <t>4710022049036</t>
-  </si>
-  <si>
-    <t>4710022023999</t>
-  </si>
-  <si>
-    <t>4710022035459</t>
-  </si>
-  <si>
-    <t>4710022048206</t>
-  </si>
-  <si>
-    <t>4710022049739</t>
-  </si>
-  <si>
-    <t>4710022051510</t>
-  </si>
-  <si>
-    <t>4710022028031</t>
-  </si>
-  <si>
-    <t>4710022036265</t>
-  </si>
-  <si>
-    <t>4710022018711</t>
-  </si>
-  <si>
-    <t>4710022027423</t>
-  </si>
-  <si>
-    <t>4710022012801</t>
-  </si>
-  <si>
-    <t>4710022020509</t>
-  </si>
-  <si>
-    <t>4710022015314</t>
-  </si>
-  <si>
-    <t>4710022023166</t>
-  </si>
-  <si>
-    <t>4710022024286</t>
-  </si>
-  <si>
-    <t>4580544940650</t>
-  </si>
-  <si>
-    <t>4902370548709</t>
-  </si>
-  <si>
-    <t>097855160614</t>
-  </si>
-  <si>
-    <t>097855160584</t>
-  </si>
-  <si>
-    <t>097855160591</t>
-  </si>
-  <si>
-    <t>836213000236</t>
-  </si>
-  <si>
-    <t>088300104437</t>
-  </si>
-  <si>
-    <t>648436105151</t>
-  </si>
-  <si>
-    <t>648436104222</t>
-  </si>
-  <si>
-    <t>648436122462</t>
-  </si>
-  <si>
-    <t>8809116503007</t>
-  </si>
-  <si>
-    <t>8809116503021</t>
-  </si>
-  <si>
-    <t>4713667030919</t>
-  </si>
-  <si>
-    <t>4713667030841</t>
-  </si>
-  <si>
-    <t>4713667030049</t>
-  </si>
-  <si>
-    <t>4713667030957</t>
-  </si>
-  <si>
-    <t>4710006290188</t>
-  </si>
-  <si>
     <t>NSRingCon-PLA</t>
   </si>
   <si>
-    <t>8809546675121</t>
-  </si>
-  <si>
-    <t>8809546675114</t>
-  </si>
-  <si>
-    <t>8809546673721</t>
-  </si>
-  <si>
-    <t>8809546673738</t>
-  </si>
-  <si>
-    <t>8809116503014</t>
-  </si>
-  <si>
-    <t>4902370548570</t>
-  </si>
-  <si>
-    <t>4902370548587</t>
-  </si>
-  <si>
-    <t>4902370535730</t>
-  </si>
-  <si>
-    <t>4902370543520</t>
-  </si>
-  <si>
-    <t>4711085935137</t>
-  </si>
-  <si>
-    <t>4711085936103</t>
-  </si>
-  <si>
-    <t>4710273771885</t>
-  </si>
-  <si>
-    <t>4902370545388</t>
-  </si>
-  <si>
-    <t>4902370543537</t>
-  </si>
-  <si>
-    <t>4902370545074</t>
-  </si>
-  <si>
-    <t>4902370543773</t>
-  </si>
-  <si>
-    <t>4902370540949</t>
-  </si>
-  <si>
-    <t>4902370547665</t>
-  </si>
-  <si>
-    <t>4974365862251</t>
-  </si>
-  <si>
-    <t>4902370544077</t>
-  </si>
-  <si>
-    <t>4902370541595</t>
-  </si>
-  <si>
-    <t>4902370538397</t>
-  </si>
-  <si>
-    <t>94842020</t>
-  </si>
-  <si>
-    <t>20208011229</t>
-  </si>
-  <si>
-    <t>54023857</t>
-  </si>
-  <si>
-    <t>80112211</t>
-  </si>
-  <si>
-    <t>80112228</t>
-  </si>
-  <si>
-    <t>4715862909816</t>
-  </si>
-  <si>
-    <t>8801046330951</t>
-  </si>
-  <si>
-    <t>8801046377062</t>
-  </si>
-  <si>
-    <t>4511413302163</t>
-  </si>
-  <si>
-    <t>8801046276983</t>
-  </si>
-  <si>
-    <t>8801046343159</t>
-  </si>
-  <si>
-    <t>4710022020233</t>
-  </si>
-  <si>
-    <t>4710022018100</t>
-  </si>
-  <si>
-    <t>4710022020646</t>
-  </si>
-  <si>
-    <t>4710022102793</t>
-  </si>
-  <si>
-    <t>4710022023418</t>
-  </si>
-  <si>
-    <t>4710022023432</t>
-  </si>
-  <si>
-    <t>4710022018124</t>
-  </si>
-  <si>
-    <t>4710022010401</t>
-  </si>
-  <si>
-    <t>4710022002628</t>
-  </si>
-  <si>
-    <t>4710022039556</t>
-  </si>
-  <si>
-    <t>4710022024842</t>
-  </si>
-  <si>
-    <t>4710022002666</t>
-  </si>
-  <si>
-    <t>4710022031826</t>
-  </si>
-  <si>
-    <t>4710022027249</t>
-  </si>
-  <si>
-    <t>4710022020677</t>
-  </si>
-  <si>
-    <t>4710022029229</t>
-  </si>
-  <si>
-    <t>4710022042525</t>
-  </si>
-  <si>
     <t>1商品破損</t>
   </si>
   <si>
@@ -1482,156 +807,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>3,600</t>
-  </si>
-  <si>
-    <t>1,400</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1,116</t>
-  </si>
-  <si>
-    <t>684</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>360</t>
   </si>
   <si>
     <t>2022-03-04</t>
@@ -2044,26 +1219,26 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>249</v>
+      <c r="C2">
+        <v>4710273812045</v>
       </c>
       <c r="D2" t="s">
-        <v>482</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G2" t="s">
-        <v>488</v>
-      </c>
-      <c r="H2" t="s">
-        <v>489</v>
+        <v>263</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
       </c>
       <c r="I2" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J2" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K2">
         <v>9</v>
@@ -2076,23 +1251,23 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>250</v>
+      <c r="C3">
+        <v>4710273812052</v>
       </c>
       <c r="F3" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G3" t="s">
-        <v>488</v>
-      </c>
-      <c r="H3" t="s">
-        <v>489</v>
+        <v>263</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
       </c>
       <c r="I3" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J3" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K3">
         <v>9</v>
@@ -2105,23 +1280,23 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>251</v>
+      <c r="C4">
+        <v>4710273811840</v>
       </c>
       <c r="F4" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G4" t="s">
-        <v>488</v>
-      </c>
-      <c r="H4" t="s">
-        <v>490</v>
+        <v>263</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
       </c>
       <c r="I4" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J4" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K4">
         <v>9</v>
@@ -2134,23 +1309,23 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>252</v>
+      <c r="C5">
+        <v>4710273811864</v>
       </c>
       <c r="F5" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G5" t="s">
-        <v>488</v>
-      </c>
-      <c r="H5" t="s">
-        <v>490</v>
+        <v>263</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
       </c>
       <c r="I5" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J5" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K5">
         <v>9</v>
@@ -2163,23 +1338,23 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>253</v>
+      <c r="C6">
+        <v>4710273812113</v>
       </c>
       <c r="F6" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G6" t="s">
-        <v>488</v>
-      </c>
-      <c r="H6" t="s">
-        <v>491</v>
+        <v>263</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
       </c>
       <c r="I6" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J6" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K6">
         <v>9</v>
@@ -2192,23 +1367,23 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>254</v>
+      <c r="C7">
+        <v>4710273811710</v>
       </c>
       <c r="F7" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G7" t="s">
-        <v>488</v>
-      </c>
-      <c r="H7" t="s">
-        <v>490</v>
+        <v>263</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
       </c>
       <c r="I7" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J7" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K7">
         <v>9</v>
@@ -2221,23 +1396,23 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>255</v>
+      <c r="C8">
+        <v>4710273811826</v>
       </c>
       <c r="F8" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G8" t="s">
-        <v>488</v>
-      </c>
-      <c r="H8" t="s">
-        <v>492</v>
+        <v>263</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
       </c>
       <c r="I8" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J8" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -2250,23 +1425,23 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>256</v>
+      <c r="C9">
+        <v>4710273812083</v>
       </c>
       <c r="F9" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G9" t="s">
-        <v>488</v>
-      </c>
-      <c r="H9" t="s">
-        <v>489</v>
+        <v>263</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
       </c>
       <c r="I9" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J9" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K9">
         <v>9</v>
@@ -2279,23 +1454,23 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>257</v>
+      <c r="C10">
+        <v>4710273811857</v>
       </c>
       <c r="F10" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H10" t="s">
-        <v>492</v>
+        <v>263</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
       </c>
       <c r="I10" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J10" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K10">
         <v>9</v>
@@ -2308,23 +1483,23 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>258</v>
+      <c r="C11">
+        <v>4710273811567</v>
       </c>
       <c r="F11" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G11" t="s">
-        <v>488</v>
-      </c>
-      <c r="H11" t="s">
-        <v>491</v>
+        <v>263</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
       </c>
       <c r="I11" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J11" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K11">
         <v>9</v>
@@ -2337,23 +1512,23 @@
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>259</v>
+      <c r="C12">
+        <v>4710273812076</v>
       </c>
       <c r="F12" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G12" t="s">
-        <v>488</v>
-      </c>
-      <c r="H12" t="s">
-        <v>489</v>
+        <v>263</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
       </c>
       <c r="I12" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J12" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K12">
         <v>9</v>
@@ -2366,23 +1541,23 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>260</v>
+      <c r="C13">
+        <v>4710273812090</v>
       </c>
       <c r="F13" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G13" t="s">
-        <v>488</v>
-      </c>
-      <c r="H13" t="s">
-        <v>489</v>
+        <v>263</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
       </c>
       <c r="I13" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J13" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K13">
         <v>9</v>
@@ -2395,26 +1570,26 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>261</v>
+      <c r="C14">
+        <v>4710273811390</v>
       </c>
       <c r="D14" t="s">
-        <v>483</v>
+        <v>258</v>
       </c>
       <c r="F14" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G14" t="s">
-        <v>488</v>
-      </c>
-      <c r="H14" t="s">
-        <v>491</v>
+        <v>263</v>
+      </c>
+      <c r="H14">
+        <v>40</v>
       </c>
       <c r="I14" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J14" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K14">
         <v>9</v>
@@ -2427,23 +1602,23 @@
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>262</v>
+      <c r="C15">
+        <v>4710273812069</v>
       </c>
       <c r="F15" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G15" t="s">
-        <v>488</v>
-      </c>
-      <c r="H15" t="s">
-        <v>489</v>
+        <v>263</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
       </c>
       <c r="I15" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J15" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K15">
         <v>9</v>
@@ -2456,23 +1631,23 @@
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>263</v>
+      <c r="C16">
+        <v>4710273811727</v>
       </c>
       <c r="F16" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G16" t="s">
-        <v>488</v>
-      </c>
-      <c r="H16" t="s">
-        <v>492</v>
+        <v>263</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
       </c>
       <c r="I16" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J16" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K16">
         <v>9</v>
@@ -2485,23 +1660,23 @@
       <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
-        <v>264</v>
+      <c r="C17">
+        <v>4710273811758</v>
       </c>
       <c r="F17" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G17" t="s">
-        <v>488</v>
-      </c>
-      <c r="H17" t="s">
-        <v>492</v>
+        <v>263</v>
+      </c>
+      <c r="H17">
+        <v>50</v>
       </c>
       <c r="I17" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J17" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K17">
         <v>9</v>
@@ -2514,23 +1689,23 @@
       <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
-        <v>265</v>
+      <c r="C18">
+        <v>279050178</v>
       </c>
       <c r="F18" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G18" t="s">
-        <v>488</v>
-      </c>
-      <c r="H18" t="s">
-        <v>493</v>
+        <v>263</v>
+      </c>
+      <c r="H18">
+        <v>71</v>
       </c>
       <c r="I18" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J18" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -2543,23 +1718,23 @@
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
-        <v>265</v>
+      <c r="C19">
+        <v>279050178</v>
       </c>
       <c r="F19" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G19" t="s">
-        <v>488</v>
-      </c>
-      <c r="H19" t="s">
-        <v>494</v>
+        <v>263</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
       </c>
       <c r="I19" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J19" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K19">
         <v>9</v>
@@ -2572,23 +1747,23 @@
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="s">
-        <v>266</v>
+      <c r="C20">
+        <v>26270660</v>
       </c>
       <c r="F20" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G20" t="s">
-        <v>488</v>
-      </c>
-      <c r="H20" t="s">
-        <v>495</v>
+        <v>263</v>
+      </c>
+      <c r="H20">
+        <v>3600</v>
       </c>
       <c r="I20" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J20" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K20">
         <v>9</v>
@@ -2601,23 +1776,23 @@
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
-        <v>267</v>
+      <c r="C21">
+        <v>26270660</v>
       </c>
       <c r="F21" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G21" t="s">
-        <v>488</v>
-      </c>
-      <c r="H21" t="s">
-        <v>496</v>
+        <v>263</v>
+      </c>
+      <c r="H21">
+        <v>1400</v>
       </c>
       <c r="I21" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J21" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K21">
         <v>9</v>
@@ -2630,23 +1805,23 @@
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
-        <v>265</v>
+      <c r="C22">
+        <v>279050178</v>
       </c>
       <c r="F22" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G22" t="s">
-        <v>488</v>
-      </c>
-      <c r="H22" t="s">
-        <v>497</v>
+        <v>263</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
       </c>
       <c r="I22" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J22" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -2659,23 +1834,23 @@
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
-        <v>265</v>
+      <c r="C23">
+        <v>279050178</v>
       </c>
       <c r="F23" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G23" t="s">
-        <v>488</v>
-      </c>
-      <c r="H23" t="s">
-        <v>498</v>
+        <v>263</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
       </c>
       <c r="I23" s="2">
         <v>44624.37868055556</v>
       </c>
       <c r="J23" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K23">
         <v>9</v>
@@ -2688,23 +1863,23 @@
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="s">
-        <v>268</v>
+      <c r="C24">
+        <v>8801007150406</v>
       </c>
       <c r="F24" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G24" t="s">
-        <v>488</v>
-      </c>
-      <c r="H24" t="s">
-        <v>490</v>
+        <v>263</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
       </c>
       <c r="I24" s="2">
         <v>44624.6209837963</v>
       </c>
       <c r="J24" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K24">
         <v>14</v>
@@ -2717,26 +1892,26 @@
       <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
-        <v>269</v>
+      <c r="C25">
+        <v>8801007052397</v>
       </c>
       <c r="D25" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F25" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G25" t="s">
-        <v>488</v>
-      </c>
-      <c r="H25" t="s">
-        <v>490</v>
+        <v>263</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
       </c>
       <c r="I25" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J25" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K25">
         <v>14</v>
@@ -2749,23 +1924,23 @@
       <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
-        <v>270</v>
+      <c r="C26">
+        <v>8801007766232</v>
       </c>
       <c r="F26" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G26" t="s">
-        <v>488</v>
-      </c>
-      <c r="H26" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H26">
+        <v>12</v>
       </c>
       <c r="I26" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J26" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K26">
         <v>14</v>
@@ -2778,23 +1953,23 @@
       <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="s">
-        <v>271</v>
+      <c r="C27">
+        <v>8801007638553</v>
       </c>
       <c r="F27" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G27" t="s">
-        <v>488</v>
-      </c>
-      <c r="H27" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H27">
+        <v>12</v>
       </c>
       <c r="I27" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J27" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K27">
         <v>14</v>
@@ -2807,23 +1982,23 @@
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
-        <v>272</v>
+      <c r="C28">
+        <v>8801007814773</v>
       </c>
       <c r="F28" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G28" t="s">
-        <v>488</v>
-      </c>
-      <c r="H28" t="s">
-        <v>500</v>
+        <v>263</v>
+      </c>
+      <c r="H28">
+        <v>60</v>
       </c>
       <c r="I28" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J28" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K28">
         <v>14</v>
@@ -2837,22 +2012,22 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="F29" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G29" t="s">
-        <v>488</v>
-      </c>
-      <c r="H29" t="s">
-        <v>501</v>
+        <v>263</v>
+      </c>
+      <c r="H29">
+        <v>500</v>
       </c>
       <c r="I29" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J29" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K29">
         <v>14</v>
@@ -2866,22 +2041,22 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="F30" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G30" t="s">
-        <v>488</v>
-      </c>
-      <c r="H30" t="s">
-        <v>502</v>
+        <v>263</v>
+      </c>
+      <c r="H30">
+        <v>250</v>
       </c>
       <c r="I30" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J30" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K30">
         <v>14</v>
@@ -2895,22 +2070,22 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="F31" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G31" t="s">
-        <v>488</v>
-      </c>
-      <c r="H31" t="s">
-        <v>492</v>
+        <v>263</v>
+      </c>
+      <c r="H31">
+        <v>50</v>
       </c>
       <c r="I31" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J31" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K31">
         <v>14</v>
@@ -2924,22 +2099,22 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="F32" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G32" t="s">
-        <v>488</v>
-      </c>
-      <c r="H32" t="s">
-        <v>503</v>
+        <v>263</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
       </c>
       <c r="I32" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J32" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K32">
         <v>14</v>
@@ -2953,22 +2128,22 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="F33" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G33" t="s">
-        <v>488</v>
-      </c>
-      <c r="H33" t="s">
-        <v>504</v>
+        <v>263</v>
+      </c>
+      <c r="H33">
+        <v>300</v>
       </c>
       <c r="I33" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J33" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K33">
         <v>14</v>
@@ -2982,22 +2157,22 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="F34" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G34" t="s">
-        <v>488</v>
-      </c>
-      <c r="H34" t="s">
-        <v>504</v>
+        <v>263</v>
+      </c>
+      <c r="H34">
+        <v>300</v>
       </c>
       <c r="I34" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J34" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K34">
         <v>14</v>
@@ -3010,23 +2185,23 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" t="s">
-        <v>278</v>
+      <c r="C35">
+        <v>4710012240085</v>
       </c>
       <c r="F35" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G35" t="s">
-        <v>488</v>
-      </c>
-      <c r="H35" t="s">
-        <v>505</v>
+        <v>263</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
       </c>
       <c r="I35" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J35" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K35">
         <v>14</v>
@@ -3039,23 +2214,23 @@
       <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
-        <v>279</v>
+      <c r="C36">
+        <v>4710012222517</v>
       </c>
       <c r="F36" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G36" t="s">
-        <v>488</v>
-      </c>
-      <c r="H36" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H36">
+        <v>12</v>
       </c>
       <c r="I36" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J36" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K36">
         <v>14</v>
@@ -3068,23 +2243,23 @@
       <c r="B37" t="s">
         <v>46</v>
       </c>
-      <c r="C37" t="s">
-        <v>280</v>
+      <c r="C37">
+        <v>4710562210125</v>
       </c>
       <c r="F37" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G37" t="s">
-        <v>488</v>
-      </c>
-      <c r="H37" t="s">
-        <v>500</v>
+        <v>263</v>
+      </c>
+      <c r="H37">
+        <v>60</v>
       </c>
       <c r="I37" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J37" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K37">
         <v>14</v>
@@ -3097,23 +2272,23 @@
       <c r="B38" t="s">
         <v>47</v>
       </c>
-      <c r="C38" t="s">
-        <v>281</v>
+      <c r="C38">
+        <v>4710562210194</v>
       </c>
       <c r="F38" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G38" t="s">
-        <v>488</v>
-      </c>
-      <c r="H38" t="s">
-        <v>506</v>
+        <v>263</v>
+      </c>
+      <c r="H38">
+        <v>48</v>
       </c>
       <c r="I38" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J38" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K38">
         <v>14</v>
@@ -3126,23 +2301,23 @@
       <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="C39" t="s">
-        <v>282</v>
+      <c r="C39">
+        <v>4710562210101</v>
       </c>
       <c r="F39" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G39" t="s">
-        <v>488</v>
-      </c>
-      <c r="H39" t="s">
-        <v>506</v>
+        <v>263</v>
+      </c>
+      <c r="H39">
+        <v>48</v>
       </c>
       <c r="I39" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J39" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K39">
         <v>14</v>
@@ -3155,23 +2330,23 @@
       <c r="B40" t="s">
         <v>49</v>
       </c>
-      <c r="C40" t="s">
-        <v>283</v>
+      <c r="C40">
+        <v>4710562210439</v>
       </c>
       <c r="F40" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G40" t="s">
-        <v>488</v>
-      </c>
-      <c r="H40" t="s">
-        <v>506</v>
+        <v>263</v>
+      </c>
+      <c r="H40">
+        <v>48</v>
       </c>
       <c r="I40" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J40" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K40">
         <v>14</v>
@@ -3184,23 +2359,23 @@
       <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="C41" t="s">
-        <v>284</v>
+      <c r="C41">
+        <v>4710562210446</v>
       </c>
       <c r="F41" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G41" t="s">
-        <v>488</v>
-      </c>
-      <c r="H41" t="s">
-        <v>500</v>
+        <v>263</v>
+      </c>
+      <c r="H41">
+        <v>60</v>
       </c>
       <c r="I41" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J41" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K41">
         <v>14</v>
@@ -3213,23 +2388,23 @@
       <c r="B42" t="s">
         <v>51</v>
       </c>
-      <c r="C42" t="s">
-        <v>285</v>
+      <c r="C42">
+        <v>4710562210088</v>
       </c>
       <c r="F42" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G42" t="s">
-        <v>488</v>
-      </c>
-      <c r="H42" t="s">
-        <v>507</v>
+        <v>263</v>
+      </c>
+      <c r="H42">
+        <v>156</v>
       </c>
       <c r="I42" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J42" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K42">
         <v>14</v>
@@ -3242,23 +2417,23 @@
       <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c r="C43" t="s">
-        <v>286</v>
+      <c r="C43">
+        <v>4710562210095</v>
       </c>
       <c r="F43" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G43" t="s">
-        <v>488</v>
-      </c>
-      <c r="H43" t="s">
-        <v>508</v>
+        <v>263</v>
+      </c>
+      <c r="H43">
+        <v>108</v>
       </c>
       <c r="I43" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J43" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K43">
         <v>14</v>
@@ -3271,23 +2446,23 @@
       <c r="B44" t="s">
         <v>53</v>
       </c>
-      <c r="C44" t="s">
-        <v>287</v>
+      <c r="C44">
+        <v>4711075740048</v>
       </c>
       <c r="F44" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G44" t="s">
-        <v>488</v>
-      </c>
-      <c r="H44" t="s">
-        <v>505</v>
+        <v>263</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
       </c>
       <c r="I44" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J44" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K44">
         <v>14</v>
@@ -3300,23 +2475,23 @@
       <c r="B45" t="s">
         <v>54</v>
       </c>
-      <c r="C45" t="s">
-        <v>288</v>
+      <c r="C45">
+        <v>4711075740055</v>
       </c>
       <c r="F45" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G45" t="s">
-        <v>488</v>
-      </c>
-      <c r="H45" t="s">
-        <v>505</v>
+        <v>263</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
       </c>
       <c r="I45" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J45" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K45">
         <v>14</v>
@@ -3329,23 +2504,23 @@
       <c r="B46" t="s">
         <v>55</v>
       </c>
-      <c r="C46" t="s">
-        <v>289</v>
+      <c r="C46">
+        <v>4711075740017</v>
       </c>
       <c r="F46" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G46" t="s">
-        <v>488</v>
-      </c>
-      <c r="H46" t="s">
-        <v>505</v>
+        <v>263</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
       </c>
       <c r="I46" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J46" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K46">
         <v>14</v>
@@ -3358,23 +2533,23 @@
       <c r="B47" t="s">
         <v>56</v>
       </c>
-      <c r="C47" t="s">
-        <v>290</v>
+      <c r="C47">
+        <v>4711075740031</v>
       </c>
       <c r="F47" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G47" t="s">
-        <v>488</v>
-      </c>
-      <c r="H47" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H47">
+        <v>12</v>
       </c>
       <c r="I47" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J47" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K47">
         <v>14</v>
@@ -3387,20 +2562,20 @@
       <c r="B48" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
-        <v>291</v>
+      <c r="C48">
+        <v>4711041890296</v>
       </c>
       <c r="F48" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G48" t="s">
-        <v>488</v>
+        <v>263</v>
       </c>
       <c r="I48" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J48" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K48">
         <v>14</v>
@@ -3413,20 +2588,20 @@
       <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="C49" t="s">
-        <v>292</v>
+      <c r="C49">
+        <v>4711041890036</v>
       </c>
       <c r="F49" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G49" t="s">
-        <v>488</v>
+        <v>263</v>
       </c>
       <c r="I49" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J49" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K49">
         <v>14</v>
@@ -3439,23 +2614,23 @@
       <c r="B50" t="s">
         <v>59</v>
       </c>
-      <c r="C50" t="s">
-        <v>293</v>
+      <c r="C50">
+        <v>9414202011176</v>
       </c>
       <c r="F50" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G50" t="s">
-        <v>488</v>
-      </c>
-      <c r="H50" t="s">
-        <v>498</v>
+        <v>263</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
       </c>
       <c r="I50" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J50" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K50">
         <v>14</v>
@@ -3468,23 +2643,23 @@
       <c r="B51" t="s">
         <v>60</v>
       </c>
-      <c r="C51" t="s">
-        <v>294</v>
+      <c r="C51">
+        <v>9414202012302</v>
       </c>
       <c r="F51" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G51" t="s">
-        <v>488</v>
-      </c>
-      <c r="H51" t="s">
-        <v>509</v>
+        <v>263</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
       </c>
       <c r="I51" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J51" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K51">
         <v>14</v>
@@ -3497,23 +2672,23 @@
       <c r="B52" t="s">
         <v>61</v>
       </c>
-      <c r="C52" t="s">
-        <v>295</v>
+      <c r="C52">
+        <v>9414202551153</v>
       </c>
       <c r="F52" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G52" t="s">
-        <v>488</v>
-      </c>
-      <c r="H52" t="s">
-        <v>509</v>
+        <v>263</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
       </c>
       <c r="I52" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J52" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K52">
         <v>14</v>
@@ -3526,23 +2701,23 @@
       <c r="B53" t="s">
         <v>62</v>
       </c>
-      <c r="C53" t="s">
-        <v>296</v>
+      <c r="C53">
+        <v>9414202011190</v>
       </c>
       <c r="F53" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G53" t="s">
-        <v>488</v>
-      </c>
-      <c r="H53" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H53">
+        <v>12</v>
       </c>
       <c r="I53" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J53" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K53">
         <v>14</v>
@@ -3555,23 +2730,23 @@
       <c r="B54" t="s">
         <v>63</v>
       </c>
-      <c r="C54" t="s">
-        <v>297</v>
+      <c r="C54">
+        <v>9414202514028</v>
       </c>
       <c r="F54" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G54" t="s">
-        <v>488</v>
-      </c>
-      <c r="H54" t="s">
-        <v>510</v>
+        <v>263</v>
+      </c>
+      <c r="H54">
+        <v>8</v>
       </c>
       <c r="I54" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J54" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K54">
         <v>14</v>
@@ -3584,23 +2759,23 @@
       <c r="B55" t="s">
         <v>64</v>
       </c>
-      <c r="C55" t="s">
-        <v>298</v>
+      <c r="C55">
+        <v>9414202531155</v>
       </c>
       <c r="F55" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G55" t="s">
-        <v>488</v>
-      </c>
-      <c r="H55" t="s">
-        <v>509</v>
+        <v>263</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
       </c>
       <c r="I55" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J55" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K55">
         <v>14</v>
@@ -3613,23 +2788,23 @@
       <c r="B56" t="s">
         <v>65</v>
       </c>
-      <c r="C56" t="s">
-        <v>299</v>
+      <c r="C56">
+        <v>4901126217388</v>
       </c>
       <c r="F56" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G56" t="s">
-        <v>488</v>
-      </c>
-      <c r="H56" t="s">
-        <v>511</v>
+        <v>263</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
       </c>
       <c r="I56" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J56" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K56">
         <v>14</v>
@@ -3642,23 +2817,23 @@
       <c r="B57" t="s">
         <v>66</v>
       </c>
-      <c r="C57" t="s">
-        <v>300</v>
+      <c r="C57">
+        <v>4901126217401</v>
       </c>
       <c r="F57" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G57" t="s">
-        <v>488</v>
-      </c>
-      <c r="H57" t="s">
-        <v>509</v>
+        <v>263</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
       </c>
       <c r="I57" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J57" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K57">
         <v>14</v>
@@ -3671,23 +2846,23 @@
       <c r="B58" t="s">
         <v>67</v>
       </c>
-      <c r="C58" t="s">
-        <v>301</v>
+      <c r="C58">
+        <v>9414202514004</v>
       </c>
       <c r="F58" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G58" t="s">
-        <v>488</v>
-      </c>
-      <c r="H58" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H58">
+        <v>12</v>
       </c>
       <c r="I58" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J58" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K58">
         <v>14</v>
@@ -3700,23 +2875,23 @@
       <c r="B59" t="s">
         <v>68</v>
       </c>
-      <c r="C59" t="s">
-        <v>302</v>
+      <c r="C59">
+        <v>9414202012401</v>
       </c>
       <c r="F59" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G59" t="s">
-        <v>488</v>
-      </c>
-      <c r="H59" t="s">
-        <v>510</v>
+        <v>263</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
       </c>
       <c r="I59" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J59" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K59">
         <v>14</v>
@@ -3729,23 +2904,23 @@
       <c r="B60" t="s">
         <v>69</v>
       </c>
-      <c r="C60" t="s">
-        <v>303</v>
+      <c r="C60">
+        <v>9414202011060</v>
       </c>
       <c r="F60" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G60" t="s">
-        <v>488</v>
-      </c>
-      <c r="H60" t="s">
-        <v>512</v>
+        <v>263</v>
+      </c>
+      <c r="H60">
+        <v>24</v>
       </c>
       <c r="I60" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J60" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K60">
         <v>14</v>
@@ -3758,23 +2933,23 @@
       <c r="B61" t="s">
         <v>70</v>
       </c>
-      <c r="C61" t="s">
-        <v>304</v>
+      <c r="C61">
+        <v>9414202927606</v>
       </c>
       <c r="F61" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G61" t="s">
-        <v>488</v>
-      </c>
-      <c r="H61" t="s">
-        <v>510</v>
+        <v>263</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
       </c>
       <c r="I61" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J61" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K61">
         <v>14</v>
@@ -3787,23 +2962,23 @@
       <c r="B62" t="s">
         <v>71</v>
       </c>
-      <c r="C62" t="s">
-        <v>305</v>
+      <c r="C62">
+        <v>4960664554324</v>
       </c>
       <c r="F62" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G62" t="s">
-        <v>488</v>
-      </c>
-      <c r="H62" t="s">
-        <v>498</v>
+        <v>263</v>
+      </c>
+      <c r="H62">
+        <v>10</v>
       </c>
       <c r="I62" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J62" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K62">
         <v>14</v>
@@ -3816,23 +2991,23 @@
       <c r="B63" t="s">
         <v>72</v>
       </c>
-      <c r="C63" t="s">
-        <v>306</v>
+      <c r="C63">
+        <v>9414202514035</v>
       </c>
       <c r="F63" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G63" t="s">
-        <v>488</v>
-      </c>
-      <c r="H63" t="s">
-        <v>510</v>
+        <v>263</v>
+      </c>
+      <c r="H63">
+        <v>8</v>
       </c>
       <c r="I63" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J63" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K63">
         <v>14</v>
@@ -3845,23 +3020,23 @@
       <c r="B64" t="s">
         <v>73</v>
       </c>
-      <c r="C64" t="s">
-        <v>307</v>
+      <c r="C64">
+        <v>9414202011534</v>
       </c>
       <c r="F64" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G64" t="s">
-        <v>488</v>
-      </c>
-      <c r="H64" t="s">
-        <v>509</v>
+        <v>263</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
       </c>
       <c r="I64" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J64" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K64">
         <v>14</v>
@@ -3874,26 +3049,26 @@
       <c r="B65" t="s">
         <v>74</v>
       </c>
-      <c r="C65" t="s">
-        <v>308</v>
+      <c r="C65">
+        <v>97855148117</v>
       </c>
       <c r="D65" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F65" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G65" t="s">
-        <v>488</v>
-      </c>
-      <c r="H65" t="s">
-        <v>492</v>
+        <v>263</v>
+      </c>
+      <c r="H65">
+        <v>50</v>
       </c>
       <c r="I65" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J65" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K65">
         <v>14</v>
@@ -3906,23 +3081,23 @@
       <c r="B66" t="s">
         <v>75</v>
       </c>
-      <c r="C66" t="s">
-        <v>309</v>
+      <c r="C66">
+        <v>97855151612</v>
       </c>
       <c r="F66" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G66" t="s">
-        <v>488</v>
-      </c>
-      <c r="H66" t="s">
-        <v>492</v>
+        <v>263</v>
+      </c>
+      <c r="H66">
+        <v>50</v>
       </c>
       <c r="I66" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J66" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K66">
         <v>14</v>
@@ -3935,23 +3110,23 @@
       <c r="B67" t="s">
         <v>76</v>
       </c>
-      <c r="C67" t="s">
-        <v>310</v>
+      <c r="C67">
+        <v>97855161864</v>
       </c>
       <c r="F67" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G67" t="s">
-        <v>488</v>
-      </c>
-      <c r="H67" t="s">
-        <v>491</v>
+        <v>263</v>
+      </c>
+      <c r="H67">
+        <v>40</v>
       </c>
       <c r="I67" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J67" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K67">
         <v>14</v>
@@ -3964,23 +3139,23 @@
       <c r="B68" t="s">
         <v>77</v>
       </c>
-      <c r="C68" t="s">
-        <v>311</v>
+      <c r="C68">
+        <v>97855142726</v>
       </c>
       <c r="F68" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G68" t="s">
-        <v>488</v>
-      </c>
-      <c r="H68" t="s">
-        <v>498</v>
+        <v>263</v>
+      </c>
+      <c r="H68">
+        <v>10</v>
       </c>
       <c r="I68" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J68" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K68">
         <v>14</v>
@@ -3993,23 +3168,23 @@
       <c r="B69" t="s">
         <v>78</v>
       </c>
-      <c r="C69" t="s">
-        <v>312</v>
+      <c r="C69">
+        <v>97855123435</v>
       </c>
       <c r="F69" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G69" t="s">
-        <v>488</v>
-      </c>
-      <c r="H69" t="s">
-        <v>489</v>
+        <v>263</v>
+      </c>
+      <c r="H69">
+        <v>30</v>
       </c>
       <c r="I69" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J69" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K69">
         <v>14</v>
@@ -4022,23 +3197,23 @@
       <c r="B70" t="s">
         <v>79</v>
       </c>
-      <c r="C70" t="s">
-        <v>313</v>
+      <c r="C70">
+        <v>97855105684</v>
       </c>
       <c r="F70" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G70" t="s">
-        <v>488</v>
-      </c>
-      <c r="H70" t="s">
-        <v>489</v>
+        <v>263</v>
+      </c>
+      <c r="H70">
+        <v>30</v>
       </c>
       <c r="I70" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J70" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K70">
         <v>14</v>
@@ -4051,23 +3226,23 @@
       <c r="B71" t="s">
         <v>80</v>
       </c>
-      <c r="C71" t="s">
-        <v>314</v>
+      <c r="C71">
+        <v>97855123077</v>
       </c>
       <c r="F71" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G71" t="s">
-        <v>488</v>
-      </c>
-      <c r="H71" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H71">
+        <v>12</v>
       </c>
       <c r="I71" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J71" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K71">
         <v>14</v>
@@ -4080,23 +3255,23 @@
       <c r="B72" t="s">
         <v>81</v>
       </c>
-      <c r="C72" t="s">
-        <v>315</v>
+      <c r="C72">
+        <v>97855142016</v>
       </c>
       <c r="F72" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G72" t="s">
-        <v>488</v>
-      </c>
-      <c r="H72" t="s">
-        <v>513</v>
+        <v>263</v>
+      </c>
+      <c r="H72">
+        <v>80</v>
       </c>
       <c r="I72" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J72" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K72">
         <v>14</v>
@@ -4109,23 +3284,23 @@
       <c r="B73" t="s">
         <v>82</v>
       </c>
-      <c r="C73" t="s">
-        <v>316</v>
+      <c r="C73">
+        <v>97855100641</v>
       </c>
       <c r="F73" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G73" t="s">
-        <v>488</v>
-      </c>
-      <c r="H73" t="s">
-        <v>498</v>
+        <v>263</v>
+      </c>
+      <c r="H73">
+        <v>10</v>
       </c>
       <c r="I73" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J73" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K73">
         <v>14</v>
@@ -4138,23 +3313,23 @@
       <c r="B74" t="s">
         <v>83</v>
       </c>
-      <c r="C74" t="s">
-        <v>317</v>
+      <c r="C74">
+        <v>97855159656</v>
       </c>
       <c r="F74" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G74" t="s">
-        <v>488</v>
-      </c>
-      <c r="H74" t="s">
-        <v>490</v>
+        <v>263</v>
+      </c>
+      <c r="H74">
+        <v>20</v>
       </c>
       <c r="I74" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J74" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K74">
         <v>14</v>
@@ -4167,23 +3342,23 @@
       <c r="B75" t="s">
         <v>84</v>
       </c>
-      <c r="C75" t="s">
-        <v>318</v>
+      <c r="C75">
+        <v>97855152145</v>
       </c>
       <c r="F75" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G75" t="s">
-        <v>488</v>
-      </c>
-      <c r="H75" t="s">
-        <v>491</v>
+        <v>263</v>
+      </c>
+      <c r="H75">
+        <v>40</v>
       </c>
       <c r="I75" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J75" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K75">
         <v>14</v>
@@ -4196,23 +3371,23 @@
       <c r="B76" t="s">
         <v>85</v>
       </c>
-      <c r="C76" t="s">
-        <v>319</v>
+      <c r="C76">
+        <v>97855152152</v>
       </c>
       <c r="F76" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G76" t="s">
-        <v>488</v>
-      </c>
-      <c r="H76" t="s">
-        <v>514</v>
+        <v>263</v>
+      </c>
+      <c r="H76">
+        <v>32</v>
       </c>
       <c r="I76" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J76" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K76">
         <v>14</v>
@@ -4225,26 +3400,26 @@
       <c r="B77" t="s">
         <v>86</v>
       </c>
-      <c r="C77" t="s">
-        <v>320</v>
+      <c r="C77">
+        <v>97855165503</v>
       </c>
       <c r="D77" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F77" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G77" t="s">
-        <v>488</v>
-      </c>
-      <c r="H77" t="s">
-        <v>515</v>
+        <v>263</v>
+      </c>
+      <c r="H77">
+        <v>127</v>
       </c>
       <c r="I77" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J77" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K77">
         <v>14</v>
@@ -4257,23 +3432,23 @@
       <c r="B78" t="s">
         <v>87</v>
       </c>
-      <c r="C78" t="s">
-        <v>321</v>
+      <c r="C78">
+        <v>97855100740</v>
       </c>
       <c r="F78" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G78" t="s">
-        <v>488</v>
-      </c>
-      <c r="H78" t="s">
-        <v>509</v>
+        <v>263</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
       </c>
       <c r="I78" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J78" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K78">
         <v>14</v>
@@ -4286,23 +3461,23 @@
       <c r="B79" t="s">
         <v>88</v>
       </c>
-      <c r="C79" t="s">
-        <v>322</v>
+      <c r="C79">
+        <v>97855157188</v>
       </c>
       <c r="F79" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G79" t="s">
-        <v>488</v>
-      </c>
-      <c r="H79" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H79">
+        <v>12</v>
       </c>
       <c r="I79" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J79" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K79">
         <v>14</v>
@@ -4315,23 +3490,23 @@
       <c r="B80" t="s">
         <v>89</v>
       </c>
-      <c r="C80" t="s">
-        <v>323</v>
+      <c r="C80">
+        <v>97855100658</v>
       </c>
       <c r="F80" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G80" t="s">
-        <v>488</v>
-      </c>
-      <c r="H80" t="s">
-        <v>511</v>
+        <v>263</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
       </c>
       <c r="I80" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J80" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K80">
         <v>14</v>
@@ -4344,23 +3519,23 @@
       <c r="B81" t="s">
         <v>90</v>
       </c>
-      <c r="C81" t="s">
-        <v>324</v>
+      <c r="C81">
+        <v>97855145727</v>
       </c>
       <c r="F81" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G81" t="s">
-        <v>488</v>
-      </c>
-      <c r="H81" t="s">
-        <v>498</v>
+        <v>263</v>
+      </c>
+      <c r="H81">
+        <v>10</v>
       </c>
       <c r="I81" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J81" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K81">
         <v>14</v>
@@ -4373,23 +3548,23 @@
       <c r="B82" t="s">
         <v>91</v>
       </c>
-      <c r="C82" t="s">
-        <v>325</v>
+      <c r="C82">
+        <v>97855157225</v>
       </c>
       <c r="F82" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G82" t="s">
-        <v>488</v>
-      </c>
-      <c r="H82" t="s">
-        <v>510</v>
+        <v>263</v>
+      </c>
+      <c r="H82">
+        <v>8</v>
       </c>
       <c r="I82" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J82" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K82">
         <v>14</v>
@@ -4402,23 +3577,23 @@
       <c r="B83" t="s">
         <v>92</v>
       </c>
-      <c r="C83" t="s">
-        <v>326</v>
+      <c r="C83">
+        <v>97855160980</v>
       </c>
       <c r="F83" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G83" t="s">
-        <v>488</v>
-      </c>
-      <c r="H83" t="s">
-        <v>490</v>
+        <v>263</v>
+      </c>
+      <c r="H83">
+        <v>20</v>
       </c>
       <c r="I83" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J83" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K83">
         <v>14</v>
@@ -4431,23 +3606,23 @@
       <c r="B84" t="s">
         <v>93</v>
       </c>
-      <c r="C84" t="s">
-        <v>327</v>
+      <c r="C84">
+        <v>97855120243</v>
       </c>
       <c r="F84" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G84" t="s">
-        <v>488</v>
-      </c>
-      <c r="H84" t="s">
-        <v>492</v>
+        <v>263</v>
+      </c>
+      <c r="H84">
+        <v>50</v>
       </c>
       <c r="I84" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J84" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K84">
         <v>14</v>
@@ -4460,23 +3635,23 @@
       <c r="B85" t="s">
         <v>94</v>
       </c>
-      <c r="C85" t="s">
-        <v>328</v>
+      <c r="C85">
+        <v>97855125491</v>
       </c>
       <c r="F85" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G85" t="s">
-        <v>488</v>
-      </c>
-      <c r="H85" t="s">
-        <v>491</v>
+        <v>263</v>
+      </c>
+      <c r="H85">
+        <v>40</v>
       </c>
       <c r="I85" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J85" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K85">
         <v>14</v>
@@ -4489,26 +3664,26 @@
       <c r="B86" t="s">
         <v>95</v>
       </c>
-      <c r="C86" t="s">
-        <v>329</v>
+      <c r="C86">
+        <v>97855165534</v>
       </c>
       <c r="D86" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F86" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G86" t="s">
-        <v>488</v>
-      </c>
-      <c r="H86" t="s">
-        <v>516</v>
+        <v>263</v>
+      </c>
+      <c r="H86">
+        <v>143</v>
       </c>
       <c r="I86" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J86" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K86">
         <v>14</v>
@@ -4521,23 +3696,23 @@
       <c r="B87" t="s">
         <v>96</v>
       </c>
-      <c r="C87" t="s">
-        <v>330</v>
+      <c r="C87">
+        <v>97855161024</v>
       </c>
       <c r="F87" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G87" t="s">
-        <v>488</v>
-      </c>
-      <c r="H87" t="s">
-        <v>491</v>
+        <v>263</v>
+      </c>
+      <c r="H87">
+        <v>40</v>
       </c>
       <c r="I87" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J87" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K87">
         <v>14</v>
@@ -4550,23 +3725,23 @@
       <c r="B88" t="s">
         <v>97</v>
       </c>
-      <c r="C88" t="s">
-        <v>331</v>
+      <c r="C88">
+        <v>97855137333</v>
       </c>
       <c r="F88" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G88" t="s">
-        <v>488</v>
-      </c>
-      <c r="H88" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H88">
+        <v>12</v>
       </c>
       <c r="I88" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J88" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K88">
         <v>14</v>
@@ -4579,23 +3754,23 @@
       <c r="B89" t="s">
         <v>98</v>
       </c>
-      <c r="C89" t="s">
-        <v>332</v>
+      <c r="C89">
+        <v>97855165473</v>
       </c>
       <c r="F89" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G89" t="s">
-        <v>488</v>
-      </c>
-      <c r="H89" t="s">
-        <v>517</v>
+        <v>263</v>
+      </c>
+      <c r="H89">
+        <v>89</v>
       </c>
       <c r="I89" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J89" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K89">
         <v>14</v>
@@ -4609,22 +3784,22 @@
         <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>333</v>
+        <v>254</v>
       </c>
       <c r="F90" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G90" t="s">
-        <v>488</v>
-      </c>
-      <c r="H90" t="s">
-        <v>498</v>
+        <v>263</v>
+      </c>
+      <c r="H90">
+        <v>10</v>
       </c>
       <c r="I90" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J90" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K90">
         <v>14</v>
@@ -4638,22 +3813,22 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>334</v>
+        <v>255</v>
       </c>
       <c r="F91" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G91" t="s">
-        <v>488</v>
-      </c>
-      <c r="H91" t="s">
-        <v>498</v>
+        <v>263</v>
+      </c>
+      <c r="H91">
+        <v>10</v>
       </c>
       <c r="I91" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J91" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K91">
         <v>14</v>
@@ -4666,23 +3841,23 @@
       <c r="B92" t="s">
         <v>101</v>
       </c>
-      <c r="C92" t="s">
-        <v>335</v>
+      <c r="C92">
+        <v>8007150904990</v>
       </c>
       <c r="F92" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G92" t="s">
-        <v>488</v>
-      </c>
-      <c r="H92" t="s">
-        <v>494</v>
+        <v>263</v>
+      </c>
+      <c r="H92">
+        <v>18</v>
       </c>
       <c r="I92" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J92" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K92">
         <v>14</v>
@@ -4695,23 +3870,23 @@
       <c r="B93" t="s">
         <v>102</v>
       </c>
-      <c r="C93" t="s">
-        <v>336</v>
+      <c r="C93">
+        <v>8007150903030</v>
       </c>
       <c r="F93" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G93" t="s">
-        <v>488</v>
-      </c>
-      <c r="H93" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H93">
+        <v>12</v>
       </c>
       <c r="I93" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J93" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K93">
         <v>14</v>
@@ -4724,23 +3899,23 @@
       <c r="B94" t="s">
         <v>103</v>
       </c>
-      <c r="C94" t="s">
-        <v>337</v>
+      <c r="C94">
+        <v>4712966430116</v>
       </c>
       <c r="F94" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G94" t="s">
-        <v>488</v>
-      </c>
-      <c r="H94" t="s">
-        <v>490</v>
+        <v>263</v>
+      </c>
+      <c r="H94">
+        <v>20</v>
       </c>
       <c r="I94" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J94" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K94">
         <v>14</v>
@@ -4753,23 +3928,23 @@
       <c r="B95" t="s">
         <v>104</v>
       </c>
-      <c r="C95" t="s">
-        <v>338</v>
+      <c r="C95">
+        <v>4712966430604</v>
       </c>
       <c r="F95" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G95" t="s">
-        <v>488</v>
-      </c>
-      <c r="H95" t="s">
-        <v>491</v>
+        <v>263</v>
+      </c>
+      <c r="H95">
+        <v>40</v>
       </c>
       <c r="I95" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J95" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K95">
         <v>14</v>
@@ -4782,23 +3957,23 @@
       <c r="B96" t="s">
         <v>105</v>
       </c>
-      <c r="C96" t="s">
-        <v>339</v>
+      <c r="C96">
+        <v>4712966430109</v>
       </c>
       <c r="F96" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G96" t="s">
-        <v>488</v>
-      </c>
-      <c r="H96" t="s">
-        <v>518</v>
+        <v>263</v>
+      </c>
+      <c r="H96">
+        <v>90</v>
       </c>
       <c r="I96" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J96" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K96">
         <v>14</v>
@@ -4811,23 +3986,23 @@
       <c r="B97" t="s">
         <v>106</v>
       </c>
-      <c r="C97" t="s">
-        <v>340</v>
+      <c r="C97">
+        <v>4712966430017</v>
       </c>
       <c r="F97" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G97" t="s">
-        <v>488</v>
-      </c>
-      <c r="H97" t="s">
-        <v>519</v>
+        <v>263</v>
+      </c>
+      <c r="H97">
+        <v>150</v>
       </c>
       <c r="I97" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J97" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K97">
         <v>14</v>
@@ -4840,23 +4015,23 @@
       <c r="B98" t="s">
         <v>107</v>
       </c>
-      <c r="C98" t="s">
-        <v>341</v>
+      <c r="C98">
+        <v>4712966430079</v>
       </c>
       <c r="F98" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G98" t="s">
-        <v>488</v>
-      </c>
-      <c r="H98" t="s">
-        <v>504</v>
+        <v>263</v>
+      </c>
+      <c r="H98">
+        <v>300</v>
       </c>
       <c r="I98" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J98" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K98">
         <v>14</v>
@@ -4869,23 +4044,23 @@
       <c r="B99" t="s">
         <v>108</v>
       </c>
-      <c r="C99" t="s">
-        <v>342</v>
+      <c r="C99">
+        <v>4710933250088</v>
       </c>
       <c r="F99" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G99" t="s">
-        <v>488</v>
-      </c>
-      <c r="H99" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H99">
+        <v>12</v>
       </c>
       <c r="I99" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J99" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K99">
         <v>14</v>
@@ -4898,23 +4073,23 @@
       <c r="B100" t="s">
         <v>109</v>
       </c>
-      <c r="C100" t="s">
-        <v>343</v>
+      <c r="C100">
+        <v>4710933248924</v>
       </c>
       <c r="F100" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G100" t="s">
-        <v>488</v>
-      </c>
-      <c r="H100" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H100">
+        <v>12</v>
       </c>
       <c r="I100" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J100" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K100">
         <v>14</v>
@@ -4927,26 +4102,26 @@
       <c r="B101" t="s">
         <v>110</v>
       </c>
-      <c r="C101" t="s">
-        <v>344</v>
+      <c r="C101">
+        <v>648436105106</v>
       </c>
       <c r="D101" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F101" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G101" t="s">
-        <v>488</v>
-      </c>
-      <c r="H101" t="s">
-        <v>509</v>
+        <v>263</v>
+      </c>
+      <c r="H101">
+        <v>4</v>
       </c>
       <c r="I101" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J101" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K101">
         <v>14</v>
@@ -4959,23 +4134,23 @@
       <c r="B102" t="s">
         <v>111</v>
       </c>
-      <c r="C102" t="s">
-        <v>345</v>
+      <c r="C102">
+        <v>8936028640879</v>
       </c>
       <c r="F102" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G102" t="s">
-        <v>488</v>
-      </c>
-      <c r="H102" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H102">
+        <v>12</v>
       </c>
       <c r="I102" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J102" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K102">
         <v>14</v>
@@ -4988,23 +4163,23 @@
       <c r="B103" t="s">
         <v>112</v>
       </c>
-      <c r="C103" t="s">
-        <v>346</v>
+      <c r="C103">
+        <v>8936028640572</v>
       </c>
       <c r="F103" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G103" t="s">
-        <v>488</v>
-      </c>
-      <c r="H103" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H103">
+        <v>12</v>
       </c>
       <c r="I103" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J103" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K103">
         <v>14</v>
@@ -5017,23 +4192,23 @@
       <c r="B104" t="s">
         <v>113</v>
       </c>
-      <c r="C104" t="s">
-        <v>347</v>
+      <c r="C104">
+        <v>8936028640541</v>
       </c>
       <c r="F104" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G104" t="s">
-        <v>488</v>
-      </c>
-      <c r="H104" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H104">
+        <v>12</v>
       </c>
       <c r="I104" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J104" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K104">
         <v>14</v>
@@ -5046,23 +4221,23 @@
       <c r="B105" t="s">
         <v>114</v>
       </c>
-      <c r="C105" t="s">
-        <v>348</v>
+      <c r="C105">
+        <v>8936028640558</v>
       </c>
       <c r="F105" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G105" t="s">
-        <v>488</v>
-      </c>
-      <c r="H105" t="s">
-        <v>512</v>
+        <v>263</v>
+      </c>
+      <c r="H105">
+        <v>24</v>
       </c>
       <c r="I105" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J105" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K105">
         <v>14</v>
@@ -5075,23 +4250,23 @@
       <c r="B106" t="s">
         <v>115</v>
       </c>
-      <c r="C106" t="s">
-        <v>349</v>
+      <c r="C106">
+        <v>648436101481</v>
       </c>
       <c r="F106" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G106" t="s">
-        <v>488</v>
-      </c>
-      <c r="H106" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H106">
+        <v>12</v>
       </c>
       <c r="I106" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J106" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K106">
         <v>14</v>
@@ -5104,23 +4279,23 @@
       <c r="B107" t="s">
         <v>116</v>
       </c>
-      <c r="C107" t="s">
-        <v>350</v>
+      <c r="C107">
+        <v>648436101443</v>
       </c>
       <c r="F107" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G107" t="s">
-        <v>488</v>
-      </c>
-      <c r="H107" t="s">
-        <v>510</v>
+        <v>263</v>
+      </c>
+      <c r="H107">
+        <v>8</v>
       </c>
       <c r="I107" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J107" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K107">
         <v>14</v>
@@ -5133,23 +4308,23 @@
       <c r="B108" t="s">
         <v>117</v>
       </c>
-      <c r="C108" t="s">
-        <v>351</v>
+      <c r="C108">
+        <v>8809695250316</v>
       </c>
       <c r="F108" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G108" t="s">
-        <v>488</v>
-      </c>
-      <c r="H108" t="s">
-        <v>512</v>
+        <v>263</v>
+      </c>
+      <c r="H108">
+        <v>24</v>
       </c>
       <c r="I108" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J108" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K108">
         <v>14</v>
@@ -5162,26 +4337,26 @@
       <c r="B109" t="s">
         <v>118</v>
       </c>
-      <c r="C109" t="s">
-        <v>352</v>
+      <c r="C109">
+        <v>4712702410112</v>
       </c>
       <c r="D109" t="s">
-        <v>485</v>
+        <v>260</v>
       </c>
       <c r="F109" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G109" t="s">
-        <v>488</v>
-      </c>
-      <c r="H109" t="s">
-        <v>492</v>
+        <v>263</v>
+      </c>
+      <c r="H109">
+        <v>50</v>
       </c>
       <c r="I109" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J109" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K109">
         <v>14</v>
@@ -5194,23 +4369,23 @@
       <c r="B110" t="s">
         <v>119</v>
       </c>
-      <c r="C110" t="s">
-        <v>353</v>
+      <c r="C110">
+        <v>8936028641340</v>
       </c>
       <c r="F110" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G110" t="s">
-        <v>488</v>
-      </c>
-      <c r="H110" t="s">
-        <v>494</v>
+        <v>263</v>
+      </c>
+      <c r="H110">
+        <v>18</v>
       </c>
       <c r="I110" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J110" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K110">
         <v>14</v>
@@ -5223,23 +4398,23 @@
       <c r="B111" t="s">
         <v>120</v>
       </c>
-      <c r="C111" t="s">
-        <v>354</v>
+      <c r="C111">
+        <v>648436105144</v>
       </c>
       <c r="F111" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G111" t="s">
-        <v>488</v>
-      </c>
-      <c r="H111" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H111">
+        <v>12</v>
       </c>
       <c r="I111" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J111" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K111">
         <v>14</v>
@@ -5252,23 +4427,23 @@
       <c r="B112" t="s">
         <v>121</v>
       </c>
-      <c r="C112" t="s">
-        <v>355</v>
+      <c r="C112">
+        <v>4713316022388</v>
       </c>
       <c r="F112" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G112" t="s">
-        <v>488</v>
-      </c>
-      <c r="H112" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H112">
+        <v>12</v>
       </c>
       <c r="I112" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J112" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K112">
         <v>14</v>
@@ -5281,23 +4456,23 @@
       <c r="B113" t="s">
         <v>122</v>
       </c>
-      <c r="C113" t="s">
-        <v>356</v>
+      <c r="C113">
+        <v>4713316900075</v>
       </c>
       <c r="F113" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G113" t="s">
-        <v>488</v>
-      </c>
-      <c r="H113" t="s">
-        <v>512</v>
+        <v>263</v>
+      </c>
+      <c r="H113">
+        <v>24</v>
       </c>
       <c r="I113" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J113" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K113">
         <v>14</v>
@@ -5310,23 +4485,23 @@
       <c r="B114" t="s">
         <v>123</v>
       </c>
-      <c r="C114" t="s">
-        <v>357</v>
+      <c r="C114">
+        <v>4713316022371</v>
       </c>
       <c r="F114" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G114" t="s">
-        <v>488</v>
-      </c>
-      <c r="H114" t="s">
-        <v>490</v>
+        <v>263</v>
+      </c>
+      <c r="H114">
+        <v>20</v>
       </c>
       <c r="I114" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J114" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K114">
         <v>14</v>
@@ -5339,23 +4514,23 @@
       <c r="B115" t="s">
         <v>124</v>
       </c>
-      <c r="C115" t="s">
-        <v>358</v>
+      <c r="C115">
+        <v>4713316022395</v>
       </c>
       <c r="F115" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G115" t="s">
-        <v>488</v>
-      </c>
-      <c r="H115" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H115">
+        <v>12</v>
       </c>
       <c r="I115" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J115" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K115">
         <v>14</v>
@@ -5368,23 +4543,23 @@
       <c r="B116" t="s">
         <v>125</v>
       </c>
-      <c r="C116" t="s">
-        <v>359</v>
+      <c r="C116">
+        <v>4713316022401</v>
       </c>
       <c r="F116" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G116" t="s">
-        <v>488</v>
-      </c>
-      <c r="H116" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H116">
+        <v>12</v>
       </c>
       <c r="I116" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J116" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K116">
         <v>14</v>
@@ -5397,23 +4572,23 @@
       <c r="B117" t="s">
         <v>126</v>
       </c>
-      <c r="C117" t="s">
-        <v>360</v>
+      <c r="C117">
+        <v>4718590065359</v>
       </c>
       <c r="F117" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G117" t="s">
-        <v>488</v>
-      </c>
-      <c r="H117" t="s">
-        <v>520</v>
+        <v>263</v>
+      </c>
+      <c r="H117">
+        <v>16</v>
       </c>
       <c r="I117" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J117" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K117">
         <v>14</v>
@@ -5426,23 +4601,23 @@
       <c r="B118" t="s">
         <v>127</v>
       </c>
-      <c r="C118" t="s">
-        <v>361</v>
+      <c r="C118">
+        <v>4713316022364</v>
       </c>
       <c r="F118" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G118" t="s">
-        <v>488</v>
-      </c>
-      <c r="H118" t="s">
-        <v>490</v>
+        <v>263</v>
+      </c>
+      <c r="H118">
+        <v>20</v>
       </c>
       <c r="I118" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J118" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K118">
         <v>14</v>
@@ -5455,23 +4630,23 @@
       <c r="B119" t="s">
         <v>128</v>
       </c>
-      <c r="C119" t="s">
-        <v>362</v>
+      <c r="C119">
+        <v>4713316022173</v>
       </c>
       <c r="F119" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G119" t="s">
-        <v>488</v>
-      </c>
-      <c r="H119" t="s">
-        <v>491</v>
+        <v>263</v>
+      </c>
+      <c r="H119">
+        <v>40</v>
       </c>
       <c r="I119" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J119" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K119">
         <v>14</v>
@@ -5484,23 +4659,23 @@
       <c r="B120" t="s">
         <v>129</v>
       </c>
-      <c r="C120" t="s">
-        <v>363</v>
+      <c r="C120">
+        <v>717334229594</v>
       </c>
       <c r="F120" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G120" t="s">
-        <v>488</v>
-      </c>
-      <c r="H120" t="s">
-        <v>521</v>
+        <v>263</v>
+      </c>
+      <c r="H120">
+        <v>1116</v>
       </c>
       <c r="I120" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J120" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K120">
         <v>14</v>
@@ -5513,23 +4688,23 @@
       <c r="B121" t="s">
         <v>130</v>
       </c>
-      <c r="C121" t="s">
-        <v>363</v>
+      <c r="C121">
+        <v>717334229594</v>
       </c>
       <c r="F121" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G121" t="s">
-        <v>488</v>
-      </c>
-      <c r="H121" t="s">
-        <v>522</v>
+        <v>263</v>
+      </c>
+      <c r="H121">
+        <v>684</v>
       </c>
       <c r="I121" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J121" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K121">
         <v>14</v>
@@ -5542,20 +4717,20 @@
       <c r="B122" t="s">
         <v>131</v>
       </c>
-      <c r="C122" t="s">
-        <v>364</v>
+      <c r="C122">
+        <v>4710418903195</v>
       </c>
       <c r="F122" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G122" t="s">
-        <v>488</v>
+        <v>263</v>
       </c>
       <c r="I122" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J122" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K122">
         <v>14</v>
@@ -5568,20 +4743,20 @@
       <c r="B123" t="s">
         <v>132</v>
       </c>
-      <c r="C123" t="s">
-        <v>365</v>
+      <c r="C123">
+        <v>4711041890043</v>
       </c>
       <c r="F123" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G123" t="s">
-        <v>488</v>
+        <v>263</v>
       </c>
       <c r="I123" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J123" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K123">
         <v>14</v>
@@ -5594,23 +4769,23 @@
       <c r="B124" t="s">
         <v>133</v>
       </c>
-      <c r="C124" t="s">
-        <v>366</v>
+      <c r="C124">
+        <v>4710586150100</v>
       </c>
       <c r="F124" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G124" t="s">
-        <v>488</v>
-      </c>
-      <c r="H124" t="s">
-        <v>523</v>
+        <v>263</v>
+      </c>
+      <c r="H124">
+        <v>28</v>
       </c>
       <c r="I124" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J124" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K124">
         <v>14</v>
@@ -5623,23 +4798,23 @@
       <c r="B125" t="s">
         <v>134</v>
       </c>
-      <c r="C125" t="s">
-        <v>367</v>
+      <c r="C125">
+        <v>8809685740506</v>
       </c>
       <c r="F125" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G125" t="s">
-        <v>488</v>
-      </c>
-      <c r="H125" t="s">
-        <v>524</v>
+        <v>263</v>
+      </c>
+      <c r="H125">
+        <v>3</v>
       </c>
       <c r="I125" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J125" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K125">
         <v>14</v>
@@ -5652,23 +4827,23 @@
       <c r="B126" t="s">
         <v>135</v>
       </c>
-      <c r="C126" t="s">
-        <v>368</v>
+      <c r="C126">
+        <v>8809685740520</v>
       </c>
       <c r="F126" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G126" t="s">
-        <v>488</v>
-      </c>
-      <c r="H126" t="s">
-        <v>524</v>
+        <v>263</v>
+      </c>
+      <c r="H126">
+        <v>3</v>
       </c>
       <c r="I126" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J126" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K126">
         <v>14</v>
@@ -5681,23 +4856,23 @@
       <c r="B127" t="s">
         <v>136</v>
       </c>
-      <c r="C127" t="s">
-        <v>369</v>
+      <c r="C127">
+        <v>4710679233017</v>
       </c>
       <c r="F127" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G127" t="s">
-        <v>488</v>
-      </c>
-      <c r="H127" t="s">
-        <v>512</v>
+        <v>263</v>
+      </c>
+      <c r="H127">
+        <v>24</v>
       </c>
       <c r="I127" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J127" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K127">
         <v>14</v>
@@ -5710,23 +4885,23 @@
       <c r="B128" t="s">
         <v>137</v>
       </c>
-      <c r="C128" t="s">
-        <v>370</v>
+      <c r="C128">
+        <v>4711518006991</v>
       </c>
       <c r="F128" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G128" t="s">
-        <v>488</v>
-      </c>
-      <c r="H128" t="s">
-        <v>505</v>
+        <v>263</v>
+      </c>
+      <c r="H128">
+        <v>6</v>
       </c>
       <c r="I128" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J128" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K128">
         <v>14</v>
@@ -5739,23 +4914,23 @@
       <c r="B129" t="s">
         <v>138</v>
       </c>
-      <c r="C129" t="s">
-        <v>371</v>
+      <c r="C129">
+        <v>4710901714758</v>
       </c>
       <c r="F129" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G129" t="s">
-        <v>488</v>
-      </c>
-      <c r="H129" t="s">
-        <v>498</v>
+        <v>263</v>
+      </c>
+      <c r="H129">
+        <v>10</v>
       </c>
       <c r="I129" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J129" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K129">
         <v>14</v>
@@ -5768,23 +4943,23 @@
       <c r="B130" t="s">
         <v>139</v>
       </c>
-      <c r="C130" t="s">
-        <v>372</v>
+      <c r="C130">
+        <v>8809263876542</v>
       </c>
       <c r="F130" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G130" t="s">
-        <v>488</v>
-      </c>
-      <c r="H130" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H130">
+        <v>12</v>
       </c>
       <c r="I130" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J130" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K130">
         <v>14</v>
@@ -5797,26 +4972,26 @@
       <c r="B131" t="s">
         <v>140</v>
       </c>
-      <c r="C131" t="s">
-        <v>373</v>
+      <c r="C131">
+        <v>8809263877808</v>
       </c>
       <c r="D131" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F131" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G131" t="s">
-        <v>488</v>
-      </c>
-      <c r="H131" t="s">
-        <v>524</v>
+        <v>263</v>
+      </c>
+      <c r="H131">
+        <v>3</v>
       </c>
       <c r="I131" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J131" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K131">
         <v>14</v>
@@ -5829,23 +5004,23 @@
       <c r="B132" t="s">
         <v>141</v>
       </c>
-      <c r="C132" t="s">
-        <v>374</v>
+      <c r="C132">
+        <v>8809263876856</v>
       </c>
       <c r="F132" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G132" t="s">
-        <v>488</v>
-      </c>
-      <c r="H132" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H132">
+        <v>12</v>
       </c>
       <c r="I132" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J132" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K132">
         <v>14</v>
@@ -5858,23 +5033,23 @@
       <c r="B133" t="s">
         <v>142</v>
       </c>
-      <c r="C133" t="s">
-        <v>375</v>
+      <c r="C133">
+        <v>8809625244514</v>
       </c>
       <c r="F133" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G133" t="s">
-        <v>488</v>
-      </c>
-      <c r="H133" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H133">
+        <v>12</v>
       </c>
       <c r="I133" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J133" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K133">
         <v>14</v>
@@ -5887,23 +5062,23 @@
       <c r="B134" t="s">
         <v>143</v>
       </c>
-      <c r="C134" t="s">
-        <v>376</v>
+      <c r="C134">
+        <v>8809625244521</v>
       </c>
       <c r="F134" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G134" t="s">
-        <v>488</v>
-      </c>
-      <c r="H134" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H134">
+        <v>12</v>
       </c>
       <c r="I134" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J134" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K134">
         <v>14</v>
@@ -5916,23 +5091,23 @@
       <c r="B135" t="s">
         <v>144</v>
       </c>
-      <c r="C135" t="s">
-        <v>377</v>
+      <c r="C135">
+        <v>8809625244477</v>
       </c>
       <c r="F135" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G135" t="s">
-        <v>488</v>
-      </c>
-      <c r="H135" t="s">
-        <v>524</v>
+        <v>263</v>
+      </c>
+      <c r="H135">
+        <v>3</v>
       </c>
       <c r="I135" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J135" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K135">
         <v>14</v>
@@ -5945,23 +5120,23 @@
       <c r="B136" t="s">
         <v>145</v>
       </c>
-      <c r="C136" t="s">
-        <v>378</v>
+      <c r="C136">
+        <v>8809263877853</v>
       </c>
       <c r="F136" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G136" t="s">
-        <v>488</v>
-      </c>
-      <c r="H136" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H136">
+        <v>12</v>
       </c>
       <c r="I136" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J136" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K136">
         <v>14</v>
@@ -5974,23 +5149,23 @@
       <c r="B137" t="s">
         <v>146</v>
       </c>
-      <c r="C137" t="s">
-        <v>379</v>
+      <c r="C137">
+        <v>8806403117534</v>
       </c>
       <c r="F137" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G137" t="s">
-        <v>488</v>
-      </c>
-      <c r="H137" t="s">
-        <v>524</v>
+        <v>263</v>
+      </c>
+      <c r="H137">
+        <v>3</v>
       </c>
       <c r="I137" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J137" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K137">
         <v>14</v>
@@ -6003,23 +5178,23 @@
       <c r="B138" t="s">
         <v>147</v>
       </c>
-      <c r="C138" t="s">
-        <v>380</v>
+      <c r="C138">
+        <v>8806403162817</v>
       </c>
       <c r="F138" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G138" t="s">
-        <v>488</v>
-      </c>
-      <c r="H138" t="s">
-        <v>524</v>
+        <v>263</v>
+      </c>
+      <c r="H138">
+        <v>3</v>
       </c>
       <c r="I138" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J138" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K138">
         <v>14</v>
@@ -6032,23 +5207,23 @@
       <c r="B139" t="s">
         <v>148</v>
       </c>
-      <c r="C139" t="s">
-        <v>381</v>
+      <c r="C139">
+        <v>5050838453115</v>
       </c>
       <c r="F139" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G139" t="s">
-        <v>488</v>
-      </c>
-      <c r="H139" t="s">
-        <v>524</v>
+        <v>263</v>
+      </c>
+      <c r="H139">
+        <v>3</v>
       </c>
       <c r="I139" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J139" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K139">
         <v>14</v>
@@ -6061,23 +5236,23 @@
       <c r="B140" t="s">
         <v>149</v>
       </c>
-      <c r="C140" t="s">
-        <v>382</v>
+      <c r="C140">
+        <v>194029300309</v>
       </c>
       <c r="F140" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G140" t="s">
-        <v>488</v>
-      </c>
-      <c r="H140" t="s">
-        <v>524</v>
+        <v>263</v>
+      </c>
+      <c r="H140">
+        <v>3</v>
       </c>
       <c r="I140" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J140" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K140">
         <v>14</v>
@@ -6090,23 +5265,23 @@
       <c r="B141" t="s">
         <v>150</v>
       </c>
-      <c r="C141" t="s">
-        <v>383</v>
+      <c r="C141">
+        <v>5050838402717</v>
       </c>
       <c r="F141" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G141" t="s">
-        <v>488</v>
-      </c>
-      <c r="H141" t="s">
-        <v>524</v>
+        <v>263</v>
+      </c>
+      <c r="H141">
+        <v>3</v>
       </c>
       <c r="I141" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J141" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K141">
         <v>14</v>
@@ -6119,23 +5294,23 @@
       <c r="B142" t="s">
         <v>151</v>
       </c>
-      <c r="C142" t="s">
-        <v>384</v>
+      <c r="C142">
+        <v>8804275493657</v>
       </c>
       <c r="F142" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G142" t="s">
-        <v>488</v>
-      </c>
-      <c r="H142" t="s">
-        <v>525</v>
+        <v>263</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
       </c>
       <c r="I142" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J142" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K142">
         <v>14</v>
@@ -6148,23 +5323,23 @@
       <c r="B143" t="s">
         <v>152</v>
       </c>
-      <c r="C143" t="s">
-        <v>385</v>
+      <c r="C143">
+        <v>5050838424917</v>
       </c>
       <c r="F143" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G143" t="s">
-        <v>488</v>
-      </c>
-      <c r="H143" t="s">
-        <v>524</v>
+        <v>263</v>
+      </c>
+      <c r="H143">
+        <v>3</v>
       </c>
       <c r="I143" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J143" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K143">
         <v>14</v>
@@ -6177,23 +5352,23 @@
       <c r="B144" t="s">
         <v>153</v>
       </c>
-      <c r="C144" t="s">
-        <v>386</v>
+      <c r="C144">
+        <v>8007270127989</v>
       </c>
       <c r="F144" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G144" t="s">
-        <v>488</v>
-      </c>
-      <c r="H144" t="s">
-        <v>512</v>
+        <v>263</v>
+      </c>
+      <c r="H144">
+        <v>24</v>
       </c>
       <c r="I144" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J144" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K144">
         <v>14</v>
@@ -6206,23 +5381,23 @@
       <c r="B145" t="s">
         <v>154</v>
       </c>
-      <c r="C145" t="s">
-        <v>387</v>
+      <c r="C145">
+        <v>8006830604113</v>
       </c>
       <c r="F145" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G145" t="s">
-        <v>488</v>
-      </c>
-      <c r="H145" t="s">
-        <v>512</v>
+        <v>263</v>
+      </c>
+      <c r="H145">
+        <v>24</v>
       </c>
       <c r="I145" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J145" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K145">
         <v>14</v>
@@ -6235,23 +5410,23 @@
       <c r="B146" t="s">
         <v>155</v>
       </c>
-      <c r="C146" t="s">
-        <v>388</v>
+      <c r="C146">
+        <v>8006830604014</v>
       </c>
       <c r="F146" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G146" t="s">
-        <v>488</v>
-      </c>
-      <c r="H146" t="s">
-        <v>512</v>
+        <v>263</v>
+      </c>
+      <c r="H146">
+        <v>24</v>
       </c>
       <c r="I146" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J146" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K146">
         <v>14</v>
@@ -6264,23 +5439,23 @@
       <c r="B147" t="s">
         <v>156</v>
       </c>
-      <c r="C147" t="s">
-        <v>389</v>
+      <c r="C147">
+        <v>8058268350506</v>
       </c>
       <c r="F147" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G147" t="s">
-        <v>488</v>
-      </c>
-      <c r="H147" t="s">
-        <v>497</v>
+        <v>263</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
       </c>
       <c r="I147" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J147" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K147">
         <v>14</v>
@@ -6293,23 +5468,23 @@
       <c r="B148" t="s">
         <v>157</v>
       </c>
-      <c r="C148" t="s">
-        <v>390</v>
+      <c r="C148">
+        <v>4792038035050</v>
       </c>
       <c r="F148" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G148" t="s">
-        <v>488</v>
-      </c>
-      <c r="H148" t="s">
-        <v>526</v>
+        <v>263</v>
+      </c>
+      <c r="H148">
+        <v>36</v>
       </c>
       <c r="I148" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J148" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K148">
         <v>14</v>
@@ -6322,23 +5497,23 @@
       <c r="B149" t="s">
         <v>158</v>
       </c>
-      <c r="C149" t="s">
-        <v>391</v>
+      <c r="C149">
+        <v>4714686008897</v>
       </c>
       <c r="F149" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G149" t="s">
-        <v>488</v>
-      </c>
-      <c r="H149" t="s">
-        <v>512</v>
+        <v>263</v>
+      </c>
+      <c r="H149">
+        <v>24</v>
       </c>
       <c r="I149" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J149" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K149">
         <v>14</v>
@@ -6351,23 +5526,23 @@
       <c r="B150" t="s">
         <v>159</v>
       </c>
-      <c r="C150" t="s">
-        <v>392</v>
+      <c r="C150">
+        <v>4714686008309</v>
       </c>
       <c r="F150" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G150" t="s">
-        <v>488</v>
-      </c>
-      <c r="H150" t="s">
-        <v>526</v>
+        <v>263</v>
+      </c>
+      <c r="H150">
+        <v>36</v>
       </c>
       <c r="I150" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J150" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K150">
         <v>14</v>
@@ -6380,23 +5555,23 @@
       <c r="B151" t="s">
         <v>160</v>
       </c>
-      <c r="C151" t="s">
-        <v>393</v>
+      <c r="C151">
+        <v>4714686008484</v>
       </c>
       <c r="F151" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G151" t="s">
-        <v>488</v>
-      </c>
-      <c r="H151" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H151">
+        <v>12</v>
       </c>
       <c r="I151" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J151" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K151">
         <v>14</v>
@@ -6409,26 +5584,26 @@
       <c r="B152" t="s">
         <v>161</v>
       </c>
-      <c r="C152" t="s">
-        <v>394</v>
+      <c r="C152">
+        <v>6070650021605</v>
       </c>
       <c r="D152" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F152" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G152" t="s">
-        <v>488</v>
-      </c>
-      <c r="H152" t="s">
-        <v>498</v>
+        <v>263</v>
+      </c>
+      <c r="H152">
+        <v>10</v>
       </c>
       <c r="I152" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J152" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K152">
         <v>14</v>
@@ -6441,23 +5616,23 @@
       <c r="B153" t="s">
         <v>162</v>
       </c>
-      <c r="C153" t="s">
-        <v>395</v>
+      <c r="C153">
+        <v>4710154214333</v>
       </c>
       <c r="F153" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G153" t="s">
-        <v>488</v>
-      </c>
-      <c r="H153" t="s">
-        <v>527</v>
+        <v>263</v>
+      </c>
+      <c r="H153">
+        <v>15</v>
       </c>
       <c r="I153" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J153" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K153">
         <v>14</v>
@@ -6470,23 +5645,23 @@
       <c r="B154" t="s">
         <v>163</v>
       </c>
-      <c r="C154" t="s">
-        <v>396</v>
+      <c r="C154">
+        <v>4710022024972</v>
       </c>
       <c r="F154" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G154" t="s">
-        <v>488</v>
-      </c>
-      <c r="H154" t="s">
-        <v>528</v>
+        <v>263</v>
+      </c>
+      <c r="H154">
+        <v>72</v>
       </c>
       <c r="I154" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J154" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K154">
         <v>14</v>
@@ -6499,23 +5674,23 @@
       <c r="B155" t="s">
         <v>164</v>
       </c>
-      <c r="C155" t="s">
-        <v>397</v>
+      <c r="C155">
+        <v>4710022041771</v>
       </c>
       <c r="F155" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G155" t="s">
-        <v>488</v>
-      </c>
-      <c r="H155" t="s">
-        <v>526</v>
+        <v>263</v>
+      </c>
+      <c r="H155">
+        <v>36</v>
       </c>
       <c r="I155" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J155" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K155">
         <v>14</v>
@@ -6528,23 +5703,23 @@
       <c r="B156" t="s">
         <v>165</v>
       </c>
-      <c r="C156" t="s">
-        <v>398</v>
+      <c r="C156">
+        <v>4710022028673</v>
       </c>
       <c r="F156" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G156" t="s">
-        <v>488</v>
-      </c>
-      <c r="H156" t="s">
-        <v>520</v>
+        <v>263</v>
+      </c>
+      <c r="H156">
+        <v>16</v>
       </c>
       <c r="I156" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J156" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K156">
         <v>14</v>
@@ -6557,26 +5732,26 @@
       <c r="B157" t="s">
         <v>166</v>
       </c>
-      <c r="C157" t="s">
-        <v>399</v>
+      <c r="C157">
+        <v>4710022049036</v>
       </c>
       <c r="D157" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F157" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G157" t="s">
-        <v>488</v>
-      </c>
-      <c r="H157" t="s">
-        <v>500</v>
+        <v>263</v>
+      </c>
+      <c r="H157">
+        <v>60</v>
       </c>
       <c r="I157" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J157" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K157">
         <v>14</v>
@@ -6589,26 +5764,26 @@
       <c r="B158" t="s">
         <v>167</v>
       </c>
-      <c r="C158" t="s">
-        <v>400</v>
+      <c r="C158">
+        <v>4710022023999</v>
       </c>
       <c r="D158" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F158" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G158" t="s">
-        <v>488</v>
-      </c>
-      <c r="H158" t="s">
-        <v>529</v>
+        <v>263</v>
+      </c>
+      <c r="H158">
+        <v>120</v>
       </c>
       <c r="I158" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J158" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K158">
         <v>14</v>
@@ -6621,26 +5796,26 @@
       <c r="B159" t="s">
         <v>168</v>
       </c>
-      <c r="C159" t="s">
-        <v>401</v>
+      <c r="C159">
+        <v>4710022035459</v>
       </c>
       <c r="D159" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F159" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G159" t="s">
-        <v>488</v>
-      </c>
-      <c r="H159" t="s">
-        <v>529</v>
+        <v>263</v>
+      </c>
+      <c r="H159">
+        <v>120</v>
       </c>
       <c r="I159" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J159" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K159">
         <v>14</v>
@@ -6653,26 +5828,26 @@
       <c r="B160" t="s">
         <v>169</v>
       </c>
-      <c r="C160" t="s">
-        <v>402</v>
+      <c r="C160">
+        <v>4710022048206</v>
       </c>
       <c r="D160" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F160" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G160" t="s">
-        <v>488</v>
-      </c>
-      <c r="H160" t="s">
-        <v>530</v>
+        <v>263</v>
+      </c>
+      <c r="H160">
+        <v>240</v>
       </c>
       <c r="I160" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J160" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K160">
         <v>14</v>
@@ -6685,26 +5860,26 @@
       <c r="B161" t="s">
         <v>170</v>
       </c>
-      <c r="C161" t="s">
-        <v>403</v>
+      <c r="C161">
+        <v>4710022049739</v>
       </c>
       <c r="D161" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F161" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G161" t="s">
-        <v>488</v>
-      </c>
-      <c r="H161" t="s">
-        <v>519</v>
+        <v>263</v>
+      </c>
+      <c r="H161">
+        <v>150</v>
       </c>
       <c r="I161" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J161" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K161">
         <v>14</v>
@@ -6717,26 +5892,26 @@
       <c r="B162" t="s">
         <v>171</v>
       </c>
-      <c r="C162" t="s">
-        <v>404</v>
+      <c r="C162">
+        <v>4710022051510</v>
       </c>
       <c r="D162" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F162" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G162" t="s">
-        <v>488</v>
-      </c>
-      <c r="H162" t="s">
-        <v>531</v>
+        <v>263</v>
+      </c>
+      <c r="H162">
+        <v>192</v>
       </c>
       <c r="I162" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J162" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K162">
         <v>14</v>
@@ -6749,26 +5924,26 @@
       <c r="B163" t="s">
         <v>172</v>
       </c>
-      <c r="C163" t="s">
-        <v>405</v>
+      <c r="C163">
+        <v>4710022028031</v>
       </c>
       <c r="D163" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F163" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G163" t="s">
-        <v>488</v>
-      </c>
-      <c r="H163" t="s">
-        <v>512</v>
+        <v>263</v>
+      </c>
+      <c r="H163">
+        <v>24</v>
       </c>
       <c r="I163" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J163" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K163">
         <v>14</v>
@@ -6781,26 +5956,26 @@
       <c r="B164" t="s">
         <v>173</v>
       </c>
-      <c r="C164" t="s">
-        <v>406</v>
+      <c r="C164">
+        <v>4710022036265</v>
       </c>
       <c r="D164" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F164" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G164" t="s">
-        <v>488</v>
-      </c>
-      <c r="H164" t="s">
-        <v>500</v>
+        <v>263</v>
+      </c>
+      <c r="H164">
+        <v>60</v>
       </c>
       <c r="I164" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J164" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K164">
         <v>14</v>
@@ -6813,26 +5988,26 @@
       <c r="B165" t="s">
         <v>174</v>
       </c>
-      <c r="C165" t="s">
-        <v>407</v>
+      <c r="C165">
+        <v>4710022018711</v>
       </c>
       <c r="D165" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F165" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G165" t="s">
-        <v>488</v>
-      </c>
-      <c r="H165" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H165">
+        <v>12</v>
       </c>
       <c r="I165" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J165" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K165">
         <v>14</v>
@@ -6845,26 +6020,26 @@
       <c r="B166" t="s">
         <v>175</v>
       </c>
-      <c r="C166" t="s">
-        <v>408</v>
+      <c r="C166">
+        <v>4710022027423</v>
       </c>
       <c r="D166" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F166" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G166" t="s">
-        <v>488</v>
-      </c>
-      <c r="H166" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H166">
+        <v>12</v>
       </c>
       <c r="I166" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J166" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K166">
         <v>14</v>
@@ -6877,26 +6052,26 @@
       <c r="B167" t="s">
         <v>176</v>
       </c>
-      <c r="C167" t="s">
-        <v>409</v>
+      <c r="C167">
+        <v>4710022012801</v>
       </c>
       <c r="D167" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F167" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G167" t="s">
-        <v>488</v>
-      </c>
-      <c r="H167" t="s">
-        <v>526</v>
+        <v>263</v>
+      </c>
+      <c r="H167">
+        <v>36</v>
       </c>
       <c r="I167" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J167" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K167">
         <v>14</v>
@@ -6909,26 +6084,26 @@
       <c r="B168" t="s">
         <v>177</v>
       </c>
-      <c r="C168" t="s">
-        <v>410</v>
+      <c r="C168">
+        <v>4710022020509</v>
       </c>
       <c r="D168" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F168" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G168" t="s">
-        <v>488</v>
-      </c>
-      <c r="H168" t="s">
-        <v>532</v>
+        <v>263</v>
+      </c>
+      <c r="H168">
+        <v>96</v>
       </c>
       <c r="I168" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J168" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K168">
         <v>14</v>
@@ -6941,26 +6116,26 @@
       <c r="B169" t="s">
         <v>178</v>
       </c>
-      <c r="C169" t="s">
-        <v>411</v>
+      <c r="C169">
+        <v>4710022015314</v>
       </c>
       <c r="D169" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="F169" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G169" t="s">
-        <v>488</v>
-      </c>
-      <c r="H169" t="s">
-        <v>533</v>
+        <v>263</v>
+      </c>
+      <c r="H169">
+        <v>102</v>
       </c>
       <c r="I169" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J169" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K169">
         <v>14</v>
@@ -6973,20 +6148,20 @@
       <c r="B170" t="s">
         <v>179</v>
       </c>
-      <c r="C170" t="s">
-        <v>412</v>
+      <c r="C170">
+        <v>4710022023166</v>
       </c>
       <c r="F170" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G170" t="s">
-        <v>488</v>
+        <v>263</v>
       </c>
       <c r="I170" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J170" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K170">
         <v>14</v>
@@ -6999,23 +6174,23 @@
       <c r="B171" t="s">
         <v>180</v>
       </c>
-      <c r="C171" t="s">
-        <v>413</v>
+      <c r="C171">
+        <v>4710022024286</v>
       </c>
       <c r="F171" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G171" t="s">
-        <v>488</v>
-      </c>
-      <c r="H171" t="s">
-        <v>518</v>
+        <v>263</v>
+      </c>
+      <c r="H171">
+        <v>90</v>
       </c>
       <c r="I171" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J171" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K171">
         <v>14</v>
@@ -7028,23 +6203,23 @@
       <c r="B172" t="s">
         <v>181</v>
       </c>
-      <c r="C172" t="s">
-        <v>414</v>
+      <c r="C172">
+        <v>4580544940650</v>
       </c>
       <c r="F172" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G172" t="s">
-        <v>488</v>
-      </c>
-      <c r="H172" t="s">
-        <v>534</v>
+        <v>263</v>
+      </c>
+      <c r="H172">
+        <v>180</v>
       </c>
       <c r="I172" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J172" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K172">
         <v>14</v>
@@ -7057,23 +6232,23 @@
       <c r="B173" t="s">
         <v>182</v>
       </c>
-      <c r="C173" t="s">
-        <v>415</v>
+      <c r="C173">
+        <v>4902370548709</v>
       </c>
       <c r="F173" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G173" t="s">
-        <v>488</v>
-      </c>
-      <c r="H173" t="s">
-        <v>498</v>
+        <v>263</v>
+      </c>
+      <c r="H173">
+        <v>10</v>
       </c>
       <c r="I173" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J173" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K173">
         <v>14</v>
@@ -7086,23 +6261,23 @@
       <c r="B174" t="s">
         <v>183</v>
       </c>
-      <c r="C174" t="s">
-        <v>416</v>
+      <c r="C174">
+        <v>97855160614</v>
       </c>
       <c r="F174" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G174" t="s">
-        <v>488</v>
-      </c>
-      <c r="H174" t="s">
-        <v>524</v>
+        <v>263</v>
+      </c>
+      <c r="H174">
+        <v>3</v>
       </c>
       <c r="I174" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J174" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K174">
         <v>14</v>
@@ -7115,23 +6290,23 @@
       <c r="B175" t="s">
         <v>184</v>
       </c>
-      <c r="C175" t="s">
-        <v>417</v>
+      <c r="C175">
+        <v>97855160584</v>
       </c>
       <c r="F175" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G175" t="s">
-        <v>488</v>
-      </c>
-      <c r="H175" t="s">
-        <v>524</v>
+        <v>263</v>
+      </c>
+      <c r="H175">
+        <v>3</v>
       </c>
       <c r="I175" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J175" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K175">
         <v>14</v>
@@ -7144,23 +6319,23 @@
       <c r="B176" t="s">
         <v>185</v>
       </c>
-      <c r="C176" t="s">
-        <v>418</v>
+      <c r="C176">
+        <v>97855160591</v>
       </c>
       <c r="F176" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G176" t="s">
-        <v>488</v>
-      </c>
-      <c r="H176" t="s">
-        <v>524</v>
+        <v>263</v>
+      </c>
+      <c r="H176">
+        <v>3</v>
       </c>
       <c r="I176" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J176" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K176">
         <v>14</v>
@@ -7173,23 +6348,23 @@
       <c r="B177" t="s">
         <v>186</v>
       </c>
-      <c r="C177" t="s">
-        <v>419</v>
+      <c r="C177">
+        <v>836213000236</v>
       </c>
       <c r="F177" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G177" t="s">
-        <v>488</v>
-      </c>
-      <c r="H177" t="s">
-        <v>524</v>
+        <v>263</v>
+      </c>
+      <c r="H177">
+        <v>3</v>
       </c>
       <c r="I177" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J177" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K177">
         <v>14</v>
@@ -7202,23 +6377,23 @@
       <c r="B178" t="s">
         <v>187</v>
       </c>
-      <c r="C178" t="s">
-        <v>420</v>
+      <c r="C178">
+        <v>88300104437</v>
       </c>
       <c r="F178" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G178" t="s">
-        <v>488</v>
-      </c>
-      <c r="H178" t="s">
-        <v>535</v>
+        <v>263</v>
+      </c>
+      <c r="H178">
+        <v>95</v>
       </c>
       <c r="I178" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J178" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K178">
         <v>14</v>
@@ -7231,23 +6406,23 @@
       <c r="B179" t="s">
         <v>188</v>
       </c>
-      <c r="C179" t="s">
-        <v>421</v>
+      <c r="C179">
+        <v>648436105151</v>
       </c>
       <c r="F179" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G179" t="s">
-        <v>488</v>
-      </c>
-      <c r="H179" t="s">
-        <v>514</v>
+        <v>263</v>
+      </c>
+      <c r="H179">
+        <v>32</v>
       </c>
       <c r="I179" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J179" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K179">
         <v>14</v>
@@ -7260,23 +6435,23 @@
       <c r="B180" t="s">
         <v>189</v>
       </c>
-      <c r="C180" t="s">
-        <v>422</v>
+      <c r="C180">
+        <v>648436104222</v>
       </c>
       <c r="F180" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G180" t="s">
-        <v>488</v>
-      </c>
-      <c r="H180" t="s">
-        <v>520</v>
+        <v>263</v>
+      </c>
+      <c r="H180">
+        <v>16</v>
       </c>
       <c r="I180" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J180" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K180">
         <v>14</v>
@@ -7289,23 +6464,23 @@
       <c r="B181" t="s">
         <v>190</v>
       </c>
-      <c r="C181" t="s">
-        <v>423</v>
+      <c r="C181">
+        <v>648436122462</v>
       </c>
       <c r="F181" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G181" t="s">
-        <v>488</v>
-      </c>
-      <c r="H181" t="s">
-        <v>509</v>
+        <v>263</v>
+      </c>
+      <c r="H181">
+        <v>4</v>
       </c>
       <c r="I181" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J181" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K181">
         <v>14</v>
@@ -7318,23 +6493,23 @@
       <c r="B182" t="s">
         <v>191</v>
       </c>
-      <c r="C182" t="s">
-        <v>424</v>
+      <c r="C182">
+        <v>8809116503007</v>
       </c>
       <c r="F182" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G182" t="s">
-        <v>488</v>
-      </c>
-      <c r="H182" t="s">
-        <v>491</v>
+        <v>263</v>
+      </c>
+      <c r="H182">
+        <v>40</v>
       </c>
       <c r="I182" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J182" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K182">
         <v>14</v>
@@ -7347,23 +6522,23 @@
       <c r="B183" t="s">
         <v>192</v>
       </c>
-      <c r="C183" t="s">
-        <v>425</v>
+      <c r="C183">
+        <v>8809116503021</v>
       </c>
       <c r="F183" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G183" t="s">
-        <v>488</v>
-      </c>
-      <c r="H183" t="s">
-        <v>491</v>
+        <v>263</v>
+      </c>
+      <c r="H183">
+        <v>40</v>
       </c>
       <c r="I183" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J183" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K183">
         <v>14</v>
@@ -7376,23 +6551,23 @@
       <c r="B184" t="s">
         <v>193</v>
       </c>
-      <c r="C184" t="s">
-        <v>426</v>
+      <c r="C184">
+        <v>4713667030919</v>
       </c>
       <c r="F184" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G184" t="s">
-        <v>488</v>
-      </c>
-      <c r="H184" t="s">
-        <v>505</v>
+        <v>263</v>
+      </c>
+      <c r="H184">
+        <v>6</v>
       </c>
       <c r="I184" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J184" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K184">
         <v>14</v>
@@ -7405,23 +6580,23 @@
       <c r="B185" t="s">
         <v>194</v>
       </c>
-      <c r="C185" t="s">
-        <v>427</v>
+      <c r="C185">
+        <v>4713667030841</v>
       </c>
       <c r="F185" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G185" t="s">
-        <v>488</v>
-      </c>
-      <c r="H185" t="s">
-        <v>505</v>
+        <v>263</v>
+      </c>
+      <c r="H185">
+        <v>6</v>
       </c>
       <c r="I185" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J185" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K185">
         <v>14</v>
@@ -7434,23 +6609,23 @@
       <c r="B186" t="s">
         <v>195</v>
       </c>
-      <c r="C186" t="s">
-        <v>428</v>
+      <c r="C186">
+        <v>4713667030049</v>
       </c>
       <c r="F186" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G186" t="s">
-        <v>488</v>
-      </c>
-      <c r="H186" t="s">
-        <v>505</v>
+        <v>263</v>
+      </c>
+      <c r="H186">
+        <v>6</v>
       </c>
       <c r="I186" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J186" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K186">
         <v>14</v>
@@ -7463,23 +6638,23 @@
       <c r="B187" t="s">
         <v>196</v>
       </c>
-      <c r="C187" t="s">
-        <v>429</v>
+      <c r="C187">
+        <v>4713667030957</v>
       </c>
       <c r="F187" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G187" t="s">
-        <v>488</v>
-      </c>
-      <c r="H187" t="s">
-        <v>505</v>
+        <v>263</v>
+      </c>
+      <c r="H187">
+        <v>6</v>
       </c>
       <c r="I187" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J187" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K187">
         <v>14</v>
@@ -7492,20 +6667,20 @@
       <c r="B188" t="s">
         <v>197</v>
       </c>
-      <c r="C188" t="s">
-        <v>430</v>
+      <c r="C188">
+        <v>4710006290188</v>
       </c>
       <c r="F188" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G188" t="s">
-        <v>488</v>
+        <v>263</v>
       </c>
       <c r="I188" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J188" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K188">
         <v>14</v>
@@ -7519,22 +6694,22 @@
         <v>198</v>
       </c>
       <c r="C189" t="s">
-        <v>431</v>
+        <v>256</v>
       </c>
       <c r="F189" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G189" t="s">
-        <v>488</v>
-      </c>
-      <c r="H189" t="s">
-        <v>510</v>
+        <v>263</v>
+      </c>
+      <c r="H189">
+        <v>8</v>
       </c>
       <c r="I189" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J189" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K189">
         <v>14</v>
@@ -7547,23 +6722,23 @@
       <c r="B190" t="s">
         <v>199</v>
       </c>
-      <c r="C190" t="s">
-        <v>432</v>
+      <c r="C190">
+        <v>8809546675121</v>
       </c>
       <c r="F190" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G190" t="s">
-        <v>488</v>
-      </c>
-      <c r="H190" t="s">
-        <v>491</v>
+        <v>263</v>
+      </c>
+      <c r="H190">
+        <v>40</v>
       </c>
       <c r="I190" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J190" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K190">
         <v>14</v>
@@ -7576,23 +6751,23 @@
       <c r="B191" t="s">
         <v>200</v>
       </c>
-      <c r="C191" t="s">
-        <v>433</v>
+      <c r="C191">
+        <v>8809546675114</v>
       </c>
       <c r="F191" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G191" t="s">
-        <v>488</v>
-      </c>
-      <c r="H191" t="s">
-        <v>491</v>
+        <v>263</v>
+      </c>
+      <c r="H191">
+        <v>40</v>
       </c>
       <c r="I191" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J191" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K191">
         <v>14</v>
@@ -7605,23 +6780,23 @@
       <c r="B192" t="s">
         <v>201</v>
       </c>
-      <c r="C192" t="s">
-        <v>434</v>
+      <c r="C192">
+        <v>8809546673721</v>
       </c>
       <c r="F192" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G192" t="s">
-        <v>488</v>
-      </c>
-      <c r="H192" t="s">
-        <v>500</v>
+        <v>263</v>
+      </c>
+      <c r="H192">
+        <v>60</v>
       </c>
       <c r="I192" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J192" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K192">
         <v>14</v>
@@ -7634,23 +6809,23 @@
       <c r="B193" t="s">
         <v>202</v>
       </c>
-      <c r="C193" t="s">
-        <v>435</v>
+      <c r="C193">
+        <v>8809546673738</v>
       </c>
       <c r="F193" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G193" t="s">
-        <v>488</v>
-      </c>
-      <c r="H193" t="s">
-        <v>490</v>
+        <v>263</v>
+      </c>
+      <c r="H193">
+        <v>20</v>
       </c>
       <c r="I193" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J193" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K193">
         <v>14</v>
@@ -7663,23 +6838,23 @@
       <c r="B194" t="s">
         <v>203</v>
       </c>
-      <c r="C194" t="s">
-        <v>436</v>
+      <c r="C194">
+        <v>8809116503014</v>
       </c>
       <c r="F194" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G194" t="s">
-        <v>488</v>
-      </c>
-      <c r="H194" t="s">
-        <v>513</v>
+        <v>263</v>
+      </c>
+      <c r="H194">
+        <v>80</v>
       </c>
       <c r="I194" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J194" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K194">
         <v>14</v>
@@ -7692,23 +6867,23 @@
       <c r="B195" t="s">
         <v>204</v>
       </c>
-      <c r="C195" t="s">
-        <v>437</v>
+      <c r="C195">
+        <v>4902370548570</v>
       </c>
       <c r="F195" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G195" t="s">
-        <v>488</v>
-      </c>
-      <c r="H195" t="s">
-        <v>489</v>
+        <v>263</v>
+      </c>
+      <c r="H195">
+        <v>30</v>
       </c>
       <c r="I195" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J195" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K195">
         <v>14</v>
@@ -7721,23 +6896,23 @@
       <c r="B196" t="s">
         <v>205</v>
       </c>
-      <c r="C196" t="s">
-        <v>438</v>
+      <c r="C196">
+        <v>4902370548587</v>
       </c>
       <c r="F196" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G196" t="s">
-        <v>488</v>
-      </c>
-      <c r="H196" t="s">
-        <v>527</v>
+        <v>263</v>
+      </c>
+      <c r="H196">
+        <v>15</v>
       </c>
       <c r="I196" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J196" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K196">
         <v>14</v>
@@ -7750,23 +6925,23 @@
       <c r="B197" t="s">
         <v>206</v>
       </c>
-      <c r="C197" t="s">
-        <v>439</v>
+      <c r="C197">
+        <v>4902370535730</v>
       </c>
       <c r="F197" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G197" t="s">
-        <v>488</v>
-      </c>
-      <c r="H197" t="s">
-        <v>527</v>
+        <v>263</v>
+      </c>
+      <c r="H197">
+        <v>15</v>
       </c>
       <c r="I197" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J197" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K197">
         <v>14</v>
@@ -7779,23 +6954,23 @@
       <c r="B198" t="s">
         <v>207</v>
       </c>
-      <c r="C198" t="s">
-        <v>440</v>
+      <c r="C198">
+        <v>4902370543520</v>
       </c>
       <c r="F198" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G198" t="s">
-        <v>488</v>
-      </c>
-      <c r="H198" t="s">
-        <v>490</v>
+        <v>263</v>
+      </c>
+      <c r="H198">
+        <v>20</v>
       </c>
       <c r="I198" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J198" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K198">
         <v>14</v>
@@ -7808,23 +6983,23 @@
       <c r="B199" t="s">
         <v>208</v>
       </c>
-      <c r="C199" t="s">
-        <v>441</v>
+      <c r="C199">
+        <v>4711085935137</v>
       </c>
       <c r="F199" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G199" t="s">
-        <v>488</v>
-      </c>
-      <c r="H199" t="s">
-        <v>513</v>
+        <v>263</v>
+      </c>
+      <c r="H199">
+        <v>80</v>
       </c>
       <c r="I199" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J199" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K199">
         <v>14</v>
@@ -7837,23 +7012,23 @@
       <c r="B200" t="s">
         <v>209</v>
       </c>
-      <c r="C200" t="s">
-        <v>442</v>
+      <c r="C200">
+        <v>4711085936103</v>
       </c>
       <c r="F200" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G200" t="s">
-        <v>488</v>
-      </c>
-      <c r="H200" t="s">
-        <v>519</v>
+        <v>263</v>
+      </c>
+      <c r="H200">
+        <v>150</v>
       </c>
       <c r="I200" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J200" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K200">
         <v>14</v>
@@ -7866,23 +7041,23 @@
       <c r="B201" t="s">
         <v>210</v>
       </c>
-      <c r="C201" t="s">
-        <v>443</v>
+      <c r="C201">
+        <v>4710273771885</v>
       </c>
       <c r="F201" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G201" t="s">
-        <v>488</v>
-      </c>
-      <c r="H201" t="s">
-        <v>503</v>
+        <v>263</v>
+      </c>
+      <c r="H201">
+        <v>100</v>
       </c>
       <c r="I201" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J201" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K201">
         <v>14</v>
@@ -7895,23 +7070,23 @@
       <c r="B202" t="s">
         <v>211</v>
       </c>
-      <c r="C202" t="s">
-        <v>444</v>
+      <c r="C202">
+        <v>4902370545388</v>
       </c>
       <c r="F202" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G202" t="s">
-        <v>488</v>
-      </c>
-      <c r="H202" t="s">
-        <v>490</v>
+        <v>263</v>
+      </c>
+      <c r="H202">
+        <v>20</v>
       </c>
       <c r="I202" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J202" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K202">
         <v>14</v>
@@ -7924,23 +7099,23 @@
       <c r="B203" t="s">
         <v>212</v>
       </c>
-      <c r="C203" t="s">
-        <v>445</v>
+      <c r="C203">
+        <v>4902370543537</v>
       </c>
       <c r="F203" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G203" t="s">
-        <v>488</v>
-      </c>
-      <c r="H203" t="s">
-        <v>536</v>
+        <v>263</v>
+      </c>
+      <c r="H203">
+        <v>25</v>
       </c>
       <c r="I203" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J203" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K203">
         <v>14</v>
@@ -7953,23 +7128,23 @@
       <c r="B204" t="s">
         <v>213</v>
       </c>
-      <c r="C204" t="s">
-        <v>446</v>
+      <c r="C204">
+        <v>4902370545074</v>
       </c>
       <c r="F204" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G204" t="s">
-        <v>488</v>
-      </c>
-      <c r="H204" t="s">
-        <v>527</v>
+        <v>263</v>
+      </c>
+      <c r="H204">
+        <v>15</v>
       </c>
       <c r="I204" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J204" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K204">
         <v>14</v>
@@ -7982,23 +7157,23 @@
       <c r="B205" t="s">
         <v>214</v>
       </c>
-      <c r="C205" t="s">
-        <v>447</v>
+      <c r="C205">
+        <v>4902370543773</v>
       </c>
       <c r="F205" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G205" t="s">
-        <v>488</v>
-      </c>
-      <c r="H205" t="s">
-        <v>536</v>
+        <v>263</v>
+      </c>
+      <c r="H205">
+        <v>25</v>
       </c>
       <c r="I205" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J205" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K205">
         <v>14</v>
@@ -8011,26 +7186,26 @@
       <c r="B206" t="s">
         <v>215</v>
       </c>
-      <c r="C206" t="s">
-        <v>448</v>
+      <c r="C206">
+        <v>4902370540949</v>
       </c>
       <c r="D206" t="s">
-        <v>486</v>
+        <v>261</v>
       </c>
       <c r="F206" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G206" t="s">
-        <v>488</v>
-      </c>
-      <c r="H206" t="s">
-        <v>511</v>
+        <v>263</v>
+      </c>
+      <c r="H206">
+        <v>5</v>
       </c>
       <c r="I206" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J206" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K206">
         <v>14</v>
@@ -8043,23 +7218,23 @@
       <c r="B207" t="s">
         <v>216</v>
       </c>
-      <c r="C207" t="s">
-        <v>449</v>
+      <c r="C207">
+        <v>4902370547665</v>
       </c>
       <c r="F207" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G207" t="s">
-        <v>488</v>
-      </c>
-      <c r="H207" t="s">
-        <v>527</v>
+        <v>263</v>
+      </c>
+      <c r="H207">
+        <v>15</v>
       </c>
       <c r="I207" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J207" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K207">
         <v>14</v>
@@ -8072,23 +7247,23 @@
       <c r="B208" t="s">
         <v>217</v>
       </c>
-      <c r="C208" t="s">
-        <v>450</v>
+      <c r="C208">
+        <v>4974365862251</v>
       </c>
       <c r="F208" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G208" t="s">
-        <v>488</v>
-      </c>
-      <c r="H208" t="s">
-        <v>527</v>
+        <v>263</v>
+      </c>
+      <c r="H208">
+        <v>15</v>
       </c>
       <c r="I208" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J208" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K208">
         <v>14</v>
@@ -8101,23 +7276,23 @@
       <c r="B209" t="s">
         <v>218</v>
       </c>
-      <c r="C209" t="s">
-        <v>451</v>
+      <c r="C209">
+        <v>4902370544077</v>
       </c>
       <c r="F209" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G209" t="s">
-        <v>488</v>
-      </c>
-      <c r="H209" t="s">
-        <v>490</v>
+        <v>263</v>
+      </c>
+      <c r="H209">
+        <v>20</v>
       </c>
       <c r="I209" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J209" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K209">
         <v>14</v>
@@ -8130,23 +7305,23 @@
       <c r="B210" t="s">
         <v>219</v>
       </c>
-      <c r="C210" t="s">
-        <v>452</v>
+      <c r="C210">
+        <v>4902370541595</v>
       </c>
       <c r="F210" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G210" t="s">
-        <v>488</v>
-      </c>
-      <c r="H210" t="s">
-        <v>527</v>
+        <v>263</v>
+      </c>
+      <c r="H210">
+        <v>15</v>
       </c>
       <c r="I210" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J210" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K210">
         <v>14</v>
@@ -8159,23 +7334,23 @@
       <c r="B211" t="s">
         <v>220</v>
       </c>
-      <c r="C211" t="s">
-        <v>453</v>
+      <c r="C211">
+        <v>4902370538397</v>
       </c>
       <c r="F211" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G211" t="s">
-        <v>488</v>
-      </c>
-      <c r="H211" t="s">
-        <v>527</v>
+        <v>263</v>
+      </c>
+      <c r="H211">
+        <v>15</v>
       </c>
       <c r="I211" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J211" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K211">
         <v>14</v>
@@ -8188,23 +7363,23 @@
       <c r="B212" t="s">
         <v>221</v>
       </c>
-      <c r="C212" t="s">
-        <v>454</v>
+      <c r="C212">
+        <v>94842020</v>
       </c>
       <c r="F212" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G212" t="s">
-        <v>488</v>
-      </c>
-      <c r="H212" t="s">
-        <v>503</v>
+        <v>263</v>
+      </c>
+      <c r="H212">
+        <v>100</v>
       </c>
       <c r="I212" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J212" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K212">
         <v>14</v>
@@ -8217,23 +7392,23 @@
       <c r="B213" t="s">
         <v>222</v>
       </c>
-      <c r="C213" t="s">
-        <v>455</v>
+      <c r="C213">
+        <v>20208011229</v>
       </c>
       <c r="F213" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G213" t="s">
-        <v>488</v>
-      </c>
-      <c r="H213" t="s">
-        <v>503</v>
+        <v>263</v>
+      </c>
+      <c r="H213">
+        <v>100</v>
       </c>
       <c r="I213" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J213" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K213">
         <v>14</v>
@@ -8246,23 +7421,23 @@
       <c r="B214" t="s">
         <v>223</v>
       </c>
-      <c r="C214" t="s">
-        <v>456</v>
+      <c r="C214">
+        <v>54023857</v>
       </c>
       <c r="F214" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G214" t="s">
-        <v>488</v>
-      </c>
-      <c r="H214" t="s">
-        <v>503</v>
+        <v>263</v>
+      </c>
+      <c r="H214">
+        <v>100</v>
       </c>
       <c r="I214" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J214" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K214">
         <v>14</v>
@@ -8275,23 +7450,23 @@
       <c r="B215" t="s">
         <v>224</v>
       </c>
-      <c r="C215" t="s">
-        <v>457</v>
+      <c r="C215">
+        <v>80112211</v>
       </c>
       <c r="F215" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G215" t="s">
-        <v>488</v>
-      </c>
-      <c r="H215" t="s">
-        <v>537</v>
+        <v>263</v>
+      </c>
+      <c r="H215">
+        <v>200</v>
       </c>
       <c r="I215" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J215" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K215">
         <v>14</v>
@@ -8304,23 +7479,23 @@
       <c r="B216" t="s">
         <v>225</v>
       </c>
-      <c r="C216" t="s">
-        <v>458</v>
+      <c r="C216">
+        <v>80112228</v>
       </c>
       <c r="F216" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G216" t="s">
-        <v>488</v>
-      </c>
-      <c r="H216" t="s">
-        <v>537</v>
+        <v>263</v>
+      </c>
+      <c r="H216">
+        <v>200</v>
       </c>
       <c r="I216" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J216" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K216">
         <v>14</v>
@@ -8333,20 +7508,20 @@
       <c r="B217" t="s">
         <v>226</v>
       </c>
-      <c r="C217" t="s">
-        <v>459</v>
+      <c r="C217">
+        <v>4715862909816</v>
       </c>
       <c r="F217" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G217" t="s">
-        <v>488</v>
+        <v>263</v>
       </c>
       <c r="I217" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J217" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K217">
         <v>14</v>
@@ -8359,23 +7534,23 @@
       <c r="B218" t="s">
         <v>227</v>
       </c>
-      <c r="C218" t="s">
-        <v>460</v>
+      <c r="C218">
+        <v>8801046330951</v>
       </c>
       <c r="F218" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G218" t="s">
-        <v>488</v>
-      </c>
-      <c r="H218" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H218">
+        <v>12</v>
       </c>
       <c r="I218" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J218" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K218">
         <v>14</v>
@@ -8388,23 +7563,23 @@
       <c r="B219" t="s">
         <v>228</v>
       </c>
-      <c r="C219" t="s">
-        <v>461</v>
+      <c r="C219">
+        <v>8801046377062</v>
       </c>
       <c r="F219" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G219" t="s">
-        <v>488</v>
-      </c>
-      <c r="H219" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H219">
+        <v>12</v>
       </c>
       <c r="I219" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J219" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K219">
         <v>14</v>
@@ -8417,23 +7592,23 @@
       <c r="B220" t="s">
         <v>229</v>
       </c>
-      <c r="C220" t="s">
-        <v>462</v>
+      <c r="C220">
+        <v>4511413302163</v>
       </c>
       <c r="F220" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G220" t="s">
-        <v>488</v>
-      </c>
-      <c r="H220" t="s">
-        <v>532</v>
+        <v>263</v>
+      </c>
+      <c r="H220">
+        <v>96</v>
       </c>
       <c r="I220" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J220" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K220">
         <v>14</v>
@@ -8446,23 +7621,23 @@
       <c r="B221" t="s">
         <v>230</v>
       </c>
-      <c r="C221" t="s">
-        <v>463</v>
+      <c r="C221">
+        <v>8801046276983</v>
       </c>
       <c r="F221" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G221" t="s">
-        <v>488</v>
-      </c>
-      <c r="H221" t="s">
-        <v>512</v>
+        <v>263</v>
+      </c>
+      <c r="H221">
+        <v>24</v>
       </c>
       <c r="I221" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J221" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K221">
         <v>14</v>
@@ -8475,23 +7650,23 @@
       <c r="B222" t="s">
         <v>231</v>
       </c>
-      <c r="C222" t="s">
-        <v>464</v>
+      <c r="C222">
+        <v>8801046343159</v>
       </c>
       <c r="F222" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G222" t="s">
-        <v>488</v>
-      </c>
-      <c r="H222" t="s">
-        <v>526</v>
+        <v>263</v>
+      </c>
+      <c r="H222">
+        <v>36</v>
       </c>
       <c r="I222" s="2">
         <v>44624.62100694444</v>
       </c>
       <c r="J222" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K222">
         <v>14</v>
@@ -8504,23 +7679,23 @@
       <c r="B223" t="s">
         <v>232</v>
       </c>
-      <c r="C223" t="s">
-        <v>465</v>
+      <c r="C223">
+        <v>4710022020233</v>
       </c>
       <c r="F223" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G223" t="s">
-        <v>488</v>
-      </c>
-      <c r="H223" t="s">
-        <v>500</v>
+        <v>263</v>
+      </c>
+      <c r="H223">
+        <v>60</v>
       </c>
       <c r="I223" s="2">
         <v>44624.70601851852</v>
       </c>
       <c r="J223" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K223">
         <v>16</v>
@@ -8533,23 +7708,23 @@
       <c r="B224" t="s">
         <v>233</v>
       </c>
-      <c r="C224" t="s">
-        <v>466</v>
+      <c r="C224">
+        <v>4710022018100</v>
       </c>
       <c r="F224" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G224" t="s">
-        <v>488</v>
-      </c>
-      <c r="H224" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H224">
+        <v>12</v>
       </c>
       <c r="I224" s="2">
         <v>44624.70601851852</v>
       </c>
       <c r="J224" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K224">
         <v>16</v>
@@ -8562,23 +7737,23 @@
       <c r="B225" t="s">
         <v>234</v>
       </c>
-      <c r="C225" t="s">
-        <v>467</v>
+      <c r="C225">
+        <v>4710022020646</v>
       </c>
       <c r="F225" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G225" t="s">
-        <v>488</v>
-      </c>
-      <c r="H225" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H225">
+        <v>12</v>
       </c>
       <c r="I225" s="2">
         <v>44624.70601851852</v>
       </c>
       <c r="J225" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K225">
         <v>16</v>
@@ -8591,23 +7766,23 @@
       <c r="B226" t="s">
         <v>235</v>
       </c>
-      <c r="C226" t="s">
-        <v>468</v>
+      <c r="C226">
+        <v>4710022102793</v>
       </c>
       <c r="F226" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G226" t="s">
-        <v>488</v>
-      </c>
-      <c r="H226" t="s">
-        <v>489</v>
+        <v>263</v>
+      </c>
+      <c r="H226">
+        <v>30</v>
       </c>
       <c r="I226" s="2">
         <v>44624.70601851852</v>
       </c>
       <c r="J226" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K226">
         <v>16</v>
@@ -8620,23 +7795,23 @@
       <c r="B227" t="s">
         <v>236</v>
       </c>
-      <c r="C227" t="s">
-        <v>469</v>
+      <c r="C227">
+        <v>4710022023418</v>
       </c>
       <c r="F227" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G227" t="s">
-        <v>488</v>
-      </c>
-      <c r="H227" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H227">
+        <v>12</v>
       </c>
       <c r="I227" s="2">
         <v>44624.70601851852</v>
       </c>
       <c r="J227" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K227">
         <v>16</v>
@@ -8649,23 +7824,23 @@
       <c r="B228" t="s">
         <v>237</v>
       </c>
-      <c r="C228" t="s">
-        <v>470</v>
+      <c r="C228">
+        <v>4710022023432</v>
       </c>
       <c r="F228" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G228" t="s">
-        <v>488</v>
-      </c>
-      <c r="H228" t="s">
-        <v>505</v>
+        <v>263</v>
+      </c>
+      <c r="H228">
+        <v>6</v>
       </c>
       <c r="I228" s="2">
         <v>44624.70601851852</v>
       </c>
       <c r="J228" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K228">
         <v>16</v>
@@ -8678,23 +7853,23 @@
       <c r="B229" t="s">
         <v>238</v>
       </c>
-      <c r="C229" t="s">
-        <v>471</v>
+      <c r="C229">
+        <v>4710022018124</v>
       </c>
       <c r="F229" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G229" t="s">
-        <v>488</v>
-      </c>
-      <c r="H229" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H229">
+        <v>12</v>
       </c>
       <c r="I229" s="2">
         <v>44624.70601851852</v>
       </c>
       <c r="J229" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K229">
         <v>16</v>
@@ -8707,23 +7882,23 @@
       <c r="B230" t="s">
         <v>239</v>
       </c>
-      <c r="C230" t="s">
-        <v>472</v>
+      <c r="C230">
+        <v>4710022010401</v>
       </c>
       <c r="F230" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G230" t="s">
-        <v>488</v>
-      </c>
-      <c r="H230" t="s">
-        <v>526</v>
+        <v>263</v>
+      </c>
+      <c r="H230">
+        <v>36</v>
       </c>
       <c r="I230" s="2">
         <v>44624.70601851852</v>
       </c>
       <c r="J230" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K230">
         <v>16</v>
@@ -8736,23 +7911,23 @@
       <c r="B231" t="s">
         <v>240</v>
       </c>
-      <c r="C231" t="s">
-        <v>473</v>
+      <c r="C231">
+        <v>4710022002628</v>
       </c>
       <c r="F231" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G231" t="s">
-        <v>488</v>
-      </c>
-      <c r="H231" t="s">
-        <v>491</v>
+        <v>263</v>
+      </c>
+      <c r="H231">
+        <v>40</v>
       </c>
       <c r="I231" s="2">
         <v>44624.70601851852</v>
       </c>
       <c r="J231" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K231">
         <v>16</v>
@@ -8765,23 +7940,23 @@
       <c r="B232" t="s">
         <v>241</v>
       </c>
-      <c r="C232" t="s">
-        <v>474</v>
+      <c r="C232">
+        <v>4710022039556</v>
       </c>
       <c r="F232" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G232" t="s">
-        <v>488</v>
-      </c>
-      <c r="H232" t="s">
-        <v>530</v>
+        <v>263</v>
+      </c>
+      <c r="H232">
+        <v>240</v>
       </c>
       <c r="I232" s="2">
         <v>44624.70601851852</v>
       </c>
       <c r="J232" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K232">
         <v>16</v>
@@ -8794,23 +7969,23 @@
       <c r="B233" t="s">
         <v>242</v>
       </c>
-      <c r="C233" t="s">
-        <v>475</v>
+      <c r="C233">
+        <v>4710022024842</v>
       </c>
       <c r="F233" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G233" t="s">
-        <v>488</v>
-      </c>
-      <c r="H233" t="s">
-        <v>538</v>
+        <v>263</v>
+      </c>
+      <c r="H233">
+        <v>360</v>
       </c>
       <c r="I233" s="2">
         <v>44624.70601851852</v>
       </c>
       <c r="J233" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K233">
         <v>16</v>
@@ -8823,23 +7998,23 @@
       <c r="B234" t="s">
         <v>243</v>
       </c>
-      <c r="C234" t="s">
-        <v>476</v>
+      <c r="C234">
+        <v>4710022002666</v>
       </c>
       <c r="F234" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G234" t="s">
-        <v>488</v>
-      </c>
-      <c r="H234" t="s">
-        <v>503</v>
+        <v>263</v>
+      </c>
+      <c r="H234">
+        <v>100</v>
       </c>
       <c r="I234" s="2">
         <v>44624.70601851852</v>
       </c>
       <c r="J234" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K234">
         <v>16</v>
@@ -8852,23 +8027,23 @@
       <c r="B235" t="s">
         <v>244</v>
       </c>
-      <c r="C235" t="s">
-        <v>477</v>
+      <c r="C235">
+        <v>4710022031826</v>
       </c>
       <c r="F235" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G235" t="s">
-        <v>488</v>
-      </c>
-      <c r="H235" t="s">
-        <v>503</v>
+        <v>263</v>
+      </c>
+      <c r="H235">
+        <v>100</v>
       </c>
       <c r="I235" s="2">
         <v>44624.70601851852</v>
       </c>
       <c r="J235" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K235">
         <v>16</v>
@@ -8881,23 +8056,23 @@
       <c r="B236" t="s">
         <v>245</v>
       </c>
-      <c r="C236" t="s">
-        <v>478</v>
+      <c r="C236">
+        <v>4710022027249</v>
       </c>
       <c r="F236" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G236" t="s">
-        <v>488</v>
-      </c>
-      <c r="H236" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H236">
+        <v>12</v>
       </c>
       <c r="I236" s="2">
         <v>44624.70601851852</v>
       </c>
       <c r="J236" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K236">
         <v>16</v>
@@ -8910,23 +8085,23 @@
       <c r="B237" t="s">
         <v>246</v>
       </c>
-      <c r="C237" t="s">
-        <v>479</v>
+      <c r="C237">
+        <v>4710022020677</v>
       </c>
       <c r="F237" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G237" t="s">
-        <v>488</v>
-      </c>
-      <c r="H237" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H237">
+        <v>12</v>
       </c>
       <c r="I237" s="2">
         <v>44624.70601851852</v>
       </c>
       <c r="J237" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K237">
         <v>16</v>
@@ -8939,23 +8114,23 @@
       <c r="B238" t="s">
         <v>247</v>
       </c>
-      <c r="C238" t="s">
-        <v>480</v>
+      <c r="C238">
+        <v>4710022029229</v>
       </c>
       <c r="F238" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G238" t="s">
-        <v>488</v>
-      </c>
-      <c r="H238" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H238">
+        <v>12</v>
       </c>
       <c r="I238" s="2">
         <v>44624.70601851852</v>
       </c>
       <c r="J238" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K238">
         <v>16</v>
@@ -8968,23 +8143,23 @@
       <c r="B239" t="s">
         <v>248</v>
       </c>
-      <c r="C239" t="s">
-        <v>481</v>
+      <c r="C239">
+        <v>4710022042525</v>
       </c>
       <c r="F239" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="G239" t="s">
-        <v>488</v>
-      </c>
-      <c r="H239" t="s">
-        <v>499</v>
+        <v>263</v>
+      </c>
+      <c r="H239">
+        <v>12</v>
       </c>
       <c r="I239" s="2">
         <v>44624.70601851852</v>
       </c>
       <c r="J239" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="K239">
         <v>16</v>
